--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC FastFood.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC FastFood.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_20190815_1845\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A08CBB-CCD1-42E3-A096-7DDAFDE1B296}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection lockWindows="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1200" windowWidth="21840" windowHeight="13140" tabRatio="690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="FF" sheetId="1" r:id="rId1"/>
+    <sheet name="FF" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">FF!$A$1:$AM$52</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">FF!$A$1:$AM$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">FF!$A$1:$AM$52</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -31,136 +26,136 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="232">
   <si>
-    <t>Sorting</t>
-  </si>
-  <si>
-    <t>SAP PoS</t>
-  </si>
-  <si>
-    <t>Channel</t>
-  </si>
-  <si>
-    <t>KPI Type</t>
-  </si>
-  <si>
-    <t>SAP KPI</t>
-  </si>
-  <si>
-    <t>KPI name Eng</t>
-  </si>
-  <si>
-    <t>KPI name Rus</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Result Format</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>target_min</t>
-  </si>
-  <si>
-    <t>target_max</t>
-  </si>
-  <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>Values</t>
-  </si>
-  <si>
-    <t>Product Category</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Logical Operator</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Form Factor</t>
-  </si>
-  <si>
-    <t>Zone to include</t>
-  </si>
-  <si>
-    <t>Locations to exclude</t>
-  </si>
-  <si>
-    <t>Locations to include</t>
-  </si>
-  <si>
-    <t>Scenes to include</t>
-  </si>
-  <si>
-    <t>Scenes to exclude</t>
-  </si>
-  <si>
-    <t>Sub locations to include</t>
-  </si>
-  <si>
-    <t>Sub locations to exclude</t>
-  </si>
-  <si>
-    <t>shelf_number</t>
-  </si>
-  <si>
-    <t>Converted?</t>
-  </si>
-  <si>
-    <t>score_func</t>
-  </si>
-  <si>
-    <t>KPI Weight</t>
-  </si>
-  <si>
-    <t>score_min</t>
-  </si>
-  <si>
-    <t>score_max</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>depends on</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>KPI ID</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>RD38010036</t>
-  </si>
-  <si>
-    <t>FAST FOOD</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Availability</t>
-  </si>
-  <si>
-    <t>Представленность</t>
+    <t xml:space="preserve">Sorting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP PoS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP KPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name Eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name Rus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logical Operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zone to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub locations to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub locations to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelf_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converted?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_func</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depends on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RD38010036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAST FOOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность</t>
   </si>
   <si>
     <t xml:space="preserve">1
@@ -171,16 +166,16 @@
 </t>
   </si>
   <si>
-    <t>STANDARD 1</t>
-  </si>
-  <si>
-    <t>SSD Availability</t>
-  </si>
-  <si>
-    <t>Представленность SSD</t>
-  </si>
-  <si>
-    <t>Weighted Average</t>
+    <t xml:space="preserve">STANDARD 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Average</t>
   </si>
   <si>
     <t xml:space="preserve">Weighted Average </t>
@@ -202,165 +197,165 @@
 </t>
   </si>
   <si>
-    <t>Coca-Cola - 0.33L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.33л</t>
-  </si>
-  <si>
-    <t>number of facings</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>SKUs</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Panoramic Photo</t>
-  </si>
-  <si>
-    <t>BINARY</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.33L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.33л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.33L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.33л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.33L</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.33л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Vanilla - 0.33L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Ванила - 0.33л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Vanilla - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Ванила - 0.5л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t>Fanta Pear - 0.5L/Fanta Citrus - 0.5L</t>
-  </si>
-  <si>
-    <t>Фанта Груша - 0.5л/Фанта Цитрус - 0.5л</t>
-  </si>
-  <si>
-    <t>Fanta Pear - 0.5L, Fanta Citrus - 0.5L</t>
-  </si>
-  <si>
-    <t>5449000172228, 5449000213631</t>
-  </si>
-  <si>
-    <t>Schweppes - Bitter Lemon - 0.33L</t>
-  </si>
-  <si>
-    <t>Швеппс Биттер Лемон - 0.33л</t>
-  </si>
-  <si>
-    <t>Schweppes - Pomegranate - 0.33L</t>
-  </si>
-  <si>
-    <t>Швеппс Гранат - 0.33л</t>
-  </si>
-  <si>
-    <t>STANDARD 2</t>
-  </si>
-  <si>
-    <t>Water Availability</t>
-  </si>
-  <si>
-    <t>Представленность Воды</t>
-  </si>
-  <si>
-    <t>16
+    <t xml:space="preserve">Coca-Cola - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panoramic Photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BINARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Vanilla - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Ванила - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Vanilla - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Ванила - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Pear - 0.5L/Fanta Citrus - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Груша - 0.5л/Фанта Цитрус - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Pear - 0.5L, Fanta Citrus - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000172228, 5449000213631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes - Bitter Lemon - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Биттер Лемон - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes - Pomegranate - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Гранат - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Воды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16
 17</t>
   </si>
   <si>
-    <t>BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 0.5л</t>
-  </si>
-  <si>
-    <t>BonAqua Carb - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Газ - 0.5л</t>
-  </si>
-  <si>
-    <t>Energy Availability</t>
-  </si>
-  <si>
-    <t>Представленность Энергетиков</t>
-  </si>
-  <si>
-    <t>19
+    <t xml:space="preserve">BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Carb - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Газ - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Энергетиков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19
 20</t>
   </si>
   <si>
-    <t>Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t>Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t>5449000131768</t>
-  </si>
-  <si>
-    <t>Burn Apple Kiwi - 0.5L</t>
-  </si>
-  <si>
-    <t>Берн Яблоко-Киви - 0.5л</t>
-  </si>
-  <si>
-    <t>5060466510869</t>
-  </si>
-  <si>
-    <t>Tea Availability</t>
-  </si>
-  <si>
-    <t>Представленность Чая</t>
+    <t xml:space="preserve">Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000131768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn Apple Kiwi - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Яблоко-Киви - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5060466510869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Чая</t>
   </si>
   <si>
     <t xml:space="preserve">22
@@ -369,162 +364,162 @@
 </t>
   </si>
   <si>
-    <t>Fuze Berry-Hibiscus - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Лесн.ягоды - 0.5л</t>
-  </si>
-  <si>
-    <t>5449000193124, 5449000259455</t>
-  </si>
-  <si>
-    <t>Fuze Mango-Camomile - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Манго-Ромашка - 0.5л</t>
+    <t xml:space="preserve">Fuze Berry-Hibiscus - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лесн.ягоды - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000193124, 5449000259455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Mango-Camomile - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Манго-Ромашка - 0.5л</t>
   </si>
   <si>
     <t xml:space="preserve"> Fuze Mango-Camomile - 0.5L</t>
   </si>
   <si>
-    <t>Fuze Lemon-Lemongrass - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t>5449000235947, 5449000189301</t>
-  </si>
-  <si>
-    <t>Juice Availability</t>
-  </si>
-  <si>
-    <t>Представленность Сока</t>
-  </si>
-  <si>
-    <t>626
+    <t xml:space="preserve">Fuze Lemon-Lemongrass - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000235947, 5449000189301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice (JNSD) Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Сока</t>
+  </si>
+  <si>
+    <t xml:space="preserve">626
 627
 628
 629</t>
   </si>
   <si>
-    <t>Dobriy - Apple - 0.33L/Rich Apple - 0.3L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 0.33л/Рич Яблоко 0.3л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 0.33L/Rich Apple 0.3L</t>
-  </si>
-  <si>
-    <t>4607174579309, 4650075421000</t>
-  </si>
-  <si>
-    <t>Pulpy - Orange - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Апельсин - 0.45л</t>
-  </si>
-  <si>
-    <t>Pulpy - Mango Pineapple - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Манго Ананас - 0.45л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 0.33L/Rich Orange - 0.3L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 0.33л/Рич Апельсин 0.3л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 0.33L/Rich Orange 0.3L</t>
-  </si>
-  <si>
-    <t>4607174579286, 4650075421024</t>
-  </si>
-  <si>
-    <t>Coolers</t>
-  </si>
-  <si>
-    <t>Холодильники</t>
-  </si>
-  <si>
-    <t>311
+    <t xml:space="preserve">Dobriy - Apple - 0.33L/Rich Apple - 0.3L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 0.33л/Рич Яблоко 0.3л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 0.33L/Rich Apple 0.3L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607174579309, 4650075421000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Orange - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Апельсин - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Mango Pineapple - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Манго Ананас - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 0.33L/Rich Orange - 0.3L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 0.33л/Рич Апельсин 0.3л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 0.33L/Rich Orange 0.3L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607174579286, 4650075421024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники</t>
+  </si>
+  <si>
+    <t xml:space="preserve">311
 312</t>
   </si>
   <si>
-    <t>Coolers: Doors</t>
-  </si>
-  <si>
-    <t>Холодильник: Двери</t>
-  </si>
-  <si>
-    <t>STANDARD 22</t>
-  </si>
-  <si>
-    <t>Cooler: Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей</t>
-  </si>
-  <si>
-    <t>sum of atomic KPI result</t>
-  </si>
-  <si>
-    <t>Plus</t>
-  </si>
-  <si>
-    <t>PROPORTIONAL</t>
-  </si>
-  <si>
-    <t>Store Master Data attr15</t>
-  </si>
-  <si>
-    <t>27
+    <t xml:space="preserve">Coolers: Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильник: Двери</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum of atomic KPI result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPORTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store Master Data attr15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27
 28</t>
   </si>
   <si>
-    <t>Cooler: CCH Cooler Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей Холодильников Компании</t>
-  </si>
-  <si>
-    <t>number of doors of filled Coolers</t>
-  </si>
-  <si>
-    <t>Manufacturer: TCCC</t>
-  </si>
-  <si>
-    <t>TCCC</t>
-  </si>
-  <si>
-    <t>MAN</t>
-  </si>
-  <si>
-    <t>Cooler</t>
-  </si>
-  <si>
-    <t>SOS with empty more than 80%</t>
-  </si>
-  <si>
-    <t>Cooler: Customer Cooler Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей Холодильников Клиента</t>
-  </si>
-  <si>
-    <t>facings TCCC/40</t>
-  </si>
-  <si>
-    <t>Other Coolers, Cold Shelf</t>
-  </si>
-  <si>
-    <t>Coolers: Quality</t>
-  </si>
-  <si>
-    <t>Холодильник: Качество</t>
+    <t xml:space="preserve">Cooler: CCH Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Компании</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of doors of filled Coolers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer: TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS with empty more than 80%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Customer Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Клиента</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facings TCCC/40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Coolers, Cold Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers: Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильник: Качество</t>
   </si>
   <si>
     <t xml:space="preserve">28
@@ -534,148 +529,151 @@
 </t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Cooler: Prime Position</t>
-  </si>
-  <si>
-    <t>Холодильники: Лучшее место</t>
-  </si>
-  <si>
-    <t>Scenes with no tagging</t>
-  </si>
-  <si>
-    <t>Panoramic photo of Cooler</t>
-  </si>
-  <si>
-    <t>NUM_SCENES</t>
-  </si>
-  <si>
-    <t>Calculate if at least one door was passed KPI "Cooler: CCH Cooler Doors"</t>
-  </si>
-  <si>
-    <t>Cooler: w/o other products</t>
-  </si>
-  <si>
-    <t>Холодильники: Без чужой продукции</t>
-  </si>
-  <si>
-    <t>Share of CCH doors which have 98% TCCC facings</t>
-  </si>
-  <si>
-    <t>Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
-  </si>
-  <si>
-    <t>Cooler: Max 15</t>
-  </si>
-  <si>
-    <t>Холодильники: Максимум 15 СКЮ на дверь</t>
-  </si>
-  <si>
-    <t>number of SKU per Door RANGE TOTAL</t>
-  </si>
-  <si>
-    <t>Activations</t>
-  </si>
-  <si>
-    <t>Активации</t>
-  </si>
-  <si>
-    <t>32
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Prime Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Лучшее место</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes with no tagging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panoramic photo of Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUM_SCENES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate if at least one door was passed KPI "Cooler: CCH Cooler Doors"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: w/o other products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Без чужой продукции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of CCH doors which have 98% TCCC facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Max 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of SKU per Door RANGE TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32
 33
 34</t>
   </si>
   <si>
-    <t>STANDARD 16</t>
-  </si>
-  <si>
-    <t>Menu Activation</t>
-  </si>
-  <si>
-    <t>Активация меню</t>
-  </si>
-  <si>
-    <t>Sub Category: Bottles, Glass</t>
-  </si>
-  <si>
-    <t>Coca-Cola, Sprite, Fanta, Fuzetea, Dobriy, Burn</t>
-  </si>
-  <si>
-    <t>IC Activation</t>
-  </si>
-  <si>
-    <t>BRAND</t>
-  </si>
-  <si>
-    <t>Activation</t>
-  </si>
-  <si>
-    <t>Menu Board, Cash Zone</t>
-  </si>
-  <si>
-    <t>OCCASIONS</t>
-  </si>
-  <si>
-    <t>Combo</t>
-  </si>
-  <si>
-    <t>Комбо</t>
-  </si>
-  <si>
-    <t>AND</t>
-  </si>
-  <si>
-    <t>35
+    <t xml:space="preserve">STANDARD 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активация меню</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub Category: Bottles, Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola, Sprite, Fanta, Fuzetea, Dobriy, Burn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu Board, Cash Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCCASIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Комбо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of atomic KPI Passed on the same scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35
 36</t>
   </si>
   <si>
-    <t>Combo: Coca-Cola</t>
+    <t xml:space="preserve">Combo: Coca-Cola</t>
   </si>
   <si>
     <t xml:space="preserve">Комбо : Кока-Кола </t>
   </si>
   <si>
-    <t>Coke+Coca Cola Zero Bottle Nrgb, Coca Cola Zero Bottle, Coca Cola Zero Logo, Coca Cola Zero Can</t>
-  </si>
-  <si>
-    <t>50111111, 50111112, 50111113, 50111114, 5000101, 5000006, 5000004, 5000005, 5000006, 5050570, 5000101</t>
-  </si>
-  <si>
-    <t>Combo: Food</t>
-  </si>
-  <si>
-    <t>Комбо : Еда</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>5000034, A5B10138, A5B10137, A5B10136, A5B10135, A5B10125, A5B10124, A5B10123, A5B10123, A5B10122, A5B10121, A5B10120, A5B10119, A5B10118, A5B10117, A5B10116, A5B10091, A5B10090, A5B10089, A5B10088, A5B10087, A5B10086, A5B10085, A5B10057, 5000044, 5000042</t>
-  </si>
-  <si>
-    <t>Food should be near Image</t>
-  </si>
-  <si>
-    <t>Hidden</t>
-  </si>
-  <si>
-    <t>STANDARD 18</t>
-  </si>
-  <si>
-    <t>COOLER_QUALITY</t>
-  </si>
-  <si>
-    <t>CCH coolers quality (Prime Pos- Max15- Merch STD- Occupancy- Lights&amp;clean)</t>
-  </si>
-  <si>
-    <t>sum of atomic scores</t>
-  </si>
-  <si>
-    <t>Decimal.2</t>
-  </si>
-  <si>
-    <t>SESSION LEVEL</t>
+    <t xml:space="preserve">Coke+Coca Cola Zero Bottle Nrgb, Coca Cola Zero Bottle, Coca Cola Zero Logo, Coca Cola Zero Can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50111111, 50111112, 50111113, 50111114, 5000101, 5000006, 5000004, 5000005, 5000006, 5050570, 5000101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combo: Food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Комбо : Еда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000034, A5B10138, A5B10137, A5B10136, A5B10135, A5B10125, A5B10124, A5B10123, A5B10123, A5B10122, A5B10121, A5B10120, A5B10119, A5B10118, A5B10117, A5B10116, A5B10091, A5B10090, A5B10089, A5B10088, A5B10087, A5B10086, A5B10085, A5B10057, 5000044, 5000042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food should be near Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COOLER_QUALITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCH coolers quality (Prime Pos- Max15- Merch STD- Occupancy- Lights&amp;clean)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum of atomic scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decimal.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SESSION LEVEL</t>
   </si>
   <si>
     <t xml:space="preserve">29
@@ -684,59 +682,59 @@
 </t>
   </si>
   <si>
-    <t>CCH_PROD_MENU</t>
-  </si>
-  <si>
-    <t>CCH products present in Customer's menu</t>
-  </si>
-  <si>
-    <t>Passed or Failed Value</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>MenuC1
+    <t xml:space="preserve">CCH_PROD_MENU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCH products present in Customer's menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passed or Failed Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MenuC1
 No_MenuC1</t>
   </si>
   <si>
-    <t>STANDARD 17</t>
-  </si>
-  <si>
-    <t>ACTIVATION_SSD</t>
-  </si>
-  <si>
-    <t>Number of CCH activation points in SSD</t>
-  </si>
-  <si>
-    <t>IMPU
+    <t xml:space="preserve">STANDARD 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVATION_SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of CCH activation points in SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPU
 No_IMPU</t>
   </si>
   <si>
-    <t>Local 21</t>
-  </si>
-  <si>
-    <t>ANY OTHER ACTIVATION</t>
-  </si>
-  <si>
-    <t>SEND VALUE if one KPI from lis is Passed , other No_O_A</t>
-  </si>
-  <si>
-    <t>OTMove
+    <t xml:space="preserve">Local 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANY OTHER ACTIVATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEND VALUE if one KPI from lis is Passed , other No_O_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTMove
 No_O_A</t>
   </si>
   <si>
-    <t>PRIORITY_OCC</t>
-  </si>
-  <si>
-    <t>Number of Priority Occasions activated in the outlet</t>
-  </si>
-  <si>
-    <t>EO
+    <t xml:space="preserve">PRIORITY_OCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Priority Occasions activated in the outlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EO
 No_O_A</t>
   </si>
   <si>
-    <t>29
+    <t xml:space="preserve">29
 30
 31
 32
@@ -744,51 +742,64 @@
 34</t>
   </si>
   <si>
-    <t>Scene Sub Type 2</t>
-  </si>
-  <si>
-    <t>COOLER_DOORS</t>
-  </si>
-  <si>
-    <t>Number of Cooler Doors</t>
-  </si>
-  <si>
-    <t>Attribute</t>
-  </si>
-  <si>
-    <t>template.additional_attribute_1</t>
-  </si>
-  <si>
-    <t>SCENE LEVEL</t>
-  </si>
-  <si>
-    <t>PLAN</t>
-  </si>
-  <si>
-    <t>Plan</t>
-  </si>
-  <si>
-    <t>Integer</t>
-  </si>
-  <si>
-    <t>number of atomic KPI Passed on the same scene</t>
+    <t xml:space="preserve">Scene Sub Type 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COOLER_DOORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">template.additional_attribute_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCENE LEVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* \-??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -798,19 +809,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -828,81 +832,112 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="dashed">
-        <color auto="1"/>
-      </top>
-      <bottom style="dashed">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dashed"/>
+      <right style="dashed"/>
+      <top style="dashed"/>
+      <bottom style="dashed"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -961,376 +996,73 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AM52"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1"/>
-    <col min="2" max="2" width="12.5546875" style="1"/>
-    <col min="3" max="3" width="11.109375" style="1"/>
-    <col min="4" max="4" width="11.44140625" style="1"/>
-    <col min="5" max="5" width="16.21875" style="1"/>
-    <col min="6" max="6" width="38.77734375" style="1"/>
-    <col min="7" max="7" width="41.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="43.21875" style="1"/>
-    <col min="9" max="9" width="16.44140625" style="1"/>
-    <col min="10" max="10" width="9.33203125" style="1"/>
-    <col min="11" max="11" width="13.5546875" style="1"/>
-    <col min="12" max="12" width="14" style="1"/>
-    <col min="13" max="13" width="83.109375" style="1"/>
-    <col min="14" max="14" width="257.109375" style="1"/>
-    <col min="15" max="15" width="19.77734375" style="1"/>
-    <col min="16" max="16" width="40.33203125" style="1"/>
-    <col min="17" max="17" width="19" style="1"/>
-    <col min="18" max="18" width="13.88671875" style="1"/>
-    <col min="19" max="19" width="7.44140625" style="1"/>
-    <col min="20" max="20" width="14.44140625" style="1"/>
-    <col min="21" max="21" width="18" style="1"/>
-    <col min="22" max="22" width="22.77734375" style="1"/>
-    <col min="23" max="23" width="22.33203125" style="1"/>
-    <col min="24" max="24" width="23.21875" style="1"/>
-    <col min="25" max="25" width="20.44140625" style="1"/>
-    <col min="26" max="26" width="25.88671875" style="1"/>
-    <col min="27" max="27" width="26.44140625" style="1"/>
-    <col min="28" max="28" width="16.33203125" style="1"/>
-    <col min="29" max="29" width="14" style="1"/>
-    <col min="30" max="30" width="17.109375" style="1"/>
-    <col min="31" max="31" width="15" style="1"/>
-    <col min="32" max="32" width="12.88671875" style="1"/>
-    <col min="33" max="33" width="13.33203125" style="1"/>
-    <col min="34" max="34" width="62.21875" style="1"/>
-    <col min="35" max="35" width="22.21875" style="1"/>
-    <col min="36" max="36" width="7.88671875" style="1"/>
-    <col min="37" max="37" width="9.21875" style="1"/>
-    <col min="38" max="38" width="11.21875" style="1"/>
-    <col min="39" max="39" width="9.6640625" style="1"/>
-    <col min="40" max="1025" width="9.109375" style="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="39.0971659919028"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.6032388663968"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.0323886639676"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="83.8744939271255"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="259.441295546559"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="40.7044534412955"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.49797570850202"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.6720647773279"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="14.0323886639676"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="62.7732793522267"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.92712550607287"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="11.246963562753"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1449,8 +1181,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1499,10 +1231,10 @@
       <c r="AG2" s="5"/>
       <c r="AH2" s="5"/>
       <c r="AI2" s="5"/>
-      <c r="AJ2" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="5">
+      <c r="AJ2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="5" t="n">
         <v>300</v>
       </c>
       <c r="AL2" s="7" t="s">
@@ -1510,8 +1242,8 @@
       </c>
       <c r="AM2" s="5"/>
     </row>
-    <row r="3" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1564,21 +1296,21 @@
       <c r="AG3" s="5"/>
       <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
-      <c r="AJ3" s="5">
+      <c r="AJ3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK3" s="5">
+      <c r="AK3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="AL3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AM3" s="5">
+      <c r="AM3" s="5" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1603,7 +1335,7 @@
         <v>53</v>
       </c>
       <c r="I4" s="5"/>
-      <c r="J4" s="5">
+      <c r="J4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="5"/>
@@ -1611,7 +1343,7 @@
       <c r="M4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="5" t="n">
         <v>5449000000996</v>
       </c>
       <c r="O4" s="5"/>
@@ -1640,26 +1372,26 @@
       <c r="AD4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AE4" s="6">
-        <v>2.7028E-2</v>
+      <c r="AE4" s="6" t="n">
+        <v>0.027028</v>
       </c>
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
-      <c r="AJ4" s="5">
+      <c r="AJ4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK4" s="5">
+      <c r="AK4" s="5" t="n">
         <v>2</v>
       </c>
       <c r="AL4" s="9"/>
-      <c r="AM4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="AM4" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1684,7 +1416,7 @@
         <v>53</v>
       </c>
       <c r="I5" s="5"/>
-      <c r="J5" s="5">
+      <c r="J5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="5"/>
@@ -1692,7 +1424,7 @@
       <c r="M5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="5" t="n">
         <v>5449000131805</v>
       </c>
       <c r="O5" s="5"/>
@@ -1721,26 +1453,26 @@
       <c r="AD5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AE5" s="6">
-        <v>2.7028E-2</v>
+      <c r="AE5" s="6" t="n">
+        <v>0.027028</v>
       </c>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
-      <c r="AJ5" s="5">
+      <c r="AJ5" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK5" s="5">
+      <c r="AK5" s="5" t="n">
         <v>3</v>
       </c>
       <c r="AL5" s="9"/>
-      <c r="AM5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="AM5" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1765,7 +1497,7 @@
         <v>53</v>
       </c>
       <c r="I6" s="5"/>
-      <c r="J6" s="5">
+      <c r="J6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="5"/>
@@ -1773,7 +1505,7 @@
       <c r="M6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="5" t="n">
         <v>5449000011527</v>
       </c>
       <c r="O6" s="5"/>
@@ -1802,26 +1534,26 @@
       <c r="AD6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AE6" s="6">
-        <v>2.7005000000000001E-2</v>
+      <c r="AE6" s="6" t="n">
+        <v>0.027005</v>
       </c>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
-      <c r="AJ6" s="5">
+      <c r="AJ6" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK6" s="5">
+      <c r="AK6" s="5" t="n">
         <v>4</v>
       </c>
       <c r="AL6" s="9"/>
-      <c r="AM6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="AM6" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1846,7 +1578,7 @@
         <v>53</v>
       </c>
       <c r="I7" s="5"/>
-      <c r="J7" s="5">
+      <c r="J7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K7" s="5"/>
@@ -1854,7 +1586,7 @@
       <c r="M7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="5" t="n">
         <v>5449000014535</v>
       </c>
       <c r="O7" s="5"/>
@@ -1883,26 +1615,26 @@
       <c r="AD7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AE7" s="6">
-        <v>2.7005000000000001E-2</v>
+      <c r="AE7" s="6" t="n">
+        <v>0.027005</v>
       </c>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
-      <c r="AJ7" s="5">
+      <c r="AJ7" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK7" s="5">
+      <c r="AK7" s="5" t="n">
         <v>5</v>
       </c>
       <c r="AL7" s="9"/>
-      <c r="AM7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="AM7" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1927,7 +1659,7 @@
         <v>53</v>
       </c>
       <c r="I8" s="5"/>
-      <c r="J8" s="5">
+      <c r="J8" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="5"/>
@@ -1935,7 +1667,7 @@
       <c r="M8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="5" t="n">
         <v>54491472</v>
       </c>
       <c r="O8" s="5"/>
@@ -1964,26 +1696,26 @@
       <c r="AD8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="6">
-        <v>2.7005000000000001E-2</v>
+      <c r="AE8" s="6" t="n">
+        <v>0.027005</v>
       </c>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
-      <c r="AJ8" s="5">
+      <c r="AJ8" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK8" s="5">
+      <c r="AK8" s="5" t="n">
         <v>6</v>
       </c>
       <c r="AL8" s="9"/>
-      <c r="AM8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="AM8" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -2008,7 +1740,7 @@
         <v>53</v>
       </c>
       <c r="I9" s="5"/>
-      <c r="J9" s="5">
+      <c r="J9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K9" s="5"/>
@@ -2016,7 +1748,7 @@
       <c r="M9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="5" t="n">
         <v>5449000131836</v>
       </c>
       <c r="O9" s="5"/>
@@ -2045,26 +1777,26 @@
       <c r="AD9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AE9" s="6">
-        <v>2.7005000000000001E-2</v>
+      <c r="AE9" s="6" t="n">
+        <v>0.027005</v>
       </c>
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
       <c r="AI9" s="5"/>
-      <c r="AJ9" s="5">
+      <c r="AJ9" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK9" s="5">
+      <c r="AK9" s="5" t="n">
         <v>7</v>
       </c>
       <c r="AL9" s="9"/>
-      <c r="AM9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="AM9" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -2089,7 +1821,7 @@
         <v>53</v>
       </c>
       <c r="I10" s="5"/>
-      <c r="J10" s="5">
+      <c r="J10" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="5"/>
@@ -2097,7 +1829,7 @@
       <c r="M10" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="5" t="n">
         <v>5449000098917</v>
       </c>
       <c r="O10" s="5"/>
@@ -2126,26 +1858,26 @@
       <c r="AD10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AE10" s="6">
-        <v>1.2489E-2</v>
+      <c r="AE10" s="6" t="n">
+        <v>0.012489</v>
       </c>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
       <c r="AI10" s="5"/>
-      <c r="AJ10" s="5">
+      <c r="AJ10" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK10" s="5">
+      <c r="AK10" s="5" t="n">
         <v>8</v>
       </c>
       <c r="AL10" s="9"/>
-      <c r="AM10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="AM10" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -2170,7 +1902,7 @@
         <v>53</v>
       </c>
       <c r="I11" s="5"/>
-      <c r="J11" s="5">
+      <c r="J11" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K11" s="5"/>
@@ -2178,7 +1910,7 @@
       <c r="M11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="5" t="n">
         <v>40822938</v>
       </c>
       <c r="O11" s="5"/>
@@ -2207,26 +1939,26 @@
       <c r="AD11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AE11" s="6">
-        <v>1.2489E-2</v>
+      <c r="AE11" s="6" t="n">
+        <v>0.012489</v>
       </c>
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
       <c r="AH11" s="5"/>
       <c r="AI11" s="5"/>
-      <c r="AJ11" s="5">
+      <c r="AJ11" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK11" s="5">
+      <c r="AK11" s="5" t="n">
         <v>9</v>
       </c>
       <c r="AL11" s="9"/>
-      <c r="AM11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="AM11" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -2251,7 +1983,7 @@
         <v>53</v>
       </c>
       <c r="I12" s="5"/>
-      <c r="J12" s="5">
+      <c r="J12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K12" s="5"/>
@@ -2259,7 +1991,7 @@
       <c r="M12" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="5" t="n">
         <v>42099697</v>
       </c>
       <c r="O12" s="5"/>
@@ -2288,26 +2020,26 @@
       <c r="AD12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AE12" s="6">
-        <v>1.2489E-2</v>
+      <c r="AE12" s="6" t="n">
+        <v>0.012489</v>
       </c>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
-      <c r="AJ12" s="5">
+      <c r="AJ12" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK12" s="5">
+      <c r="AK12" s="5" t="n">
         <v>10</v>
       </c>
       <c r="AL12" s="9"/>
-      <c r="AM12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="AM12" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -2332,7 +2064,7 @@
         <v>53</v>
       </c>
       <c r="I13" s="5"/>
-      <c r="J13" s="5">
+      <c r="J13" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="5"/>
@@ -2340,7 +2072,7 @@
       <c r="M13" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="5" t="n">
         <v>54491069</v>
       </c>
       <c r="O13" s="5"/>
@@ -2369,26 +2101,26 @@
       <c r="AD13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AE13" s="6">
-        <v>1.2489E-2</v>
+      <c r="AE13" s="6" t="n">
+        <v>0.012489</v>
       </c>
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
-      <c r="AJ13" s="5">
+      <c r="AJ13" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK13" s="5">
+      <c r="AK13" s="5" t="n">
         <v>11</v>
       </c>
       <c r="AL13" s="9"/>
-      <c r="AM13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="AM13" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2413,7 +2145,7 @@
         <v>53</v>
       </c>
       <c r="I14" s="5"/>
-      <c r="J14" s="5">
+      <c r="J14" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="5"/>
@@ -2450,26 +2182,26 @@
       <c r="AD14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AE14" s="6">
-        <v>6.9899999999999997E-3</v>
+      <c r="AE14" s="6" t="n">
+        <v>0.00699</v>
       </c>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
-      <c r="AJ14" s="5">
+      <c r="AJ14" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK14" s="5">
+      <c r="AK14" s="5" t="n">
         <v>12</v>
       </c>
       <c r="AL14" s="9"/>
-      <c r="AM14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="AM14" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2494,7 +2226,7 @@
         <v>53</v>
       </c>
       <c r="I15" s="5"/>
-      <c r="J15" s="5">
+      <c r="J15" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K15" s="5"/>
@@ -2502,7 +2234,7 @@
       <c r="M15" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="5" t="n">
         <v>5449000064110</v>
       </c>
       <c r="O15" s="5"/>
@@ -2531,26 +2263,26 @@
       <c r="AD15" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AE15" s="6">
-        <v>6.9899999999999997E-3</v>
+      <c r="AE15" s="6" t="n">
+        <v>0.00699</v>
       </c>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
       <c r="AI15" s="5"/>
-      <c r="AJ15" s="5">
+      <c r="AJ15" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK15" s="5">
+      <c r="AK15" s="5" t="n">
         <v>13</v>
       </c>
       <c r="AL15" s="9"/>
-      <c r="AM15" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="AM15" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -2575,7 +2307,7 @@
         <v>53</v>
       </c>
       <c r="I16" s="5"/>
-      <c r="J16" s="5">
+      <c r="J16" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="5"/>
@@ -2583,7 +2315,7 @@
       <c r="M16" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="5" t="n">
         <v>5449000030856</v>
       </c>
       <c r="O16" s="5"/>
@@ -2612,26 +2344,26 @@
       <c r="AD16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AE16" s="6">
-        <v>6.9899999999999997E-3</v>
+      <c r="AE16" s="6" t="n">
+        <v>0.00699</v>
       </c>
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
       <c r="AI16" s="5"/>
-      <c r="AJ16" s="5">
+      <c r="AJ16" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK16" s="5">
+      <c r="AK16" s="5" t="n">
         <v>14</v>
       </c>
       <c r="AL16" s="9"/>
-      <c r="AM16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="AM16" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2684,21 +2416,21 @@
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
       <c r="AI17" s="5"/>
-      <c r="AJ17" s="5">
+      <c r="AJ17" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK17" s="5">
+      <c r="AK17" s="5" t="n">
         <v>15</v>
       </c>
       <c r="AL17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AM17" s="5">
+      <c r="AM17" s="5" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -2723,7 +2455,7 @@
         <v>53</v>
       </c>
       <c r="I18" s="5"/>
-      <c r="J18" s="5">
+      <c r="J18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="5"/>
@@ -2731,7 +2463,7 @@
       <c r="M18" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="5" t="n">
         <v>40822426</v>
       </c>
       <c r="O18" s="5"/>
@@ -2760,26 +2492,26 @@
       <c r="AD18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AE18" s="6">
-        <v>1.2991000000000001E-2</v>
+      <c r="AE18" s="6" t="n">
+        <v>0.012991</v>
       </c>
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
       <c r="AI18" s="5"/>
-      <c r="AJ18" s="5">
+      <c r="AJ18" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK18" s="5">
+      <c r="AK18" s="5" t="n">
         <v>16</v>
       </c>
       <c r="AL18" s="9"/>
-      <c r="AM18" s="5">
+      <c r="AM18" s="5" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -2804,7 +2536,7 @@
         <v>53</v>
       </c>
       <c r="I19" s="5"/>
-      <c r="J19" s="5">
+      <c r="J19" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K19" s="5"/>
@@ -2812,7 +2544,7 @@
       <c r="M19" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="5" t="n">
         <v>90494406</v>
       </c>
       <c r="O19" s="5"/>
@@ -2841,26 +2573,26 @@
       <c r="AD19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AE19" s="6">
-        <v>1.2991000000000001E-2</v>
+      <c r="AE19" s="6" t="n">
+        <v>0.012991</v>
       </c>
       <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
       <c r="AI19" s="5"/>
-      <c r="AJ19" s="5">
+      <c r="AJ19" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK19" s="5">
+      <c r="AK19" s="5" t="n">
         <v>17</v>
       </c>
       <c r="AL19" s="9"/>
-      <c r="AM19" s="5">
+      <c r="AM19" s="5" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -2913,21 +2645,21 @@
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
-      <c r="AJ20" s="5">
+      <c r="AJ20" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK20" s="5">
+      <c r="AK20" s="5" t="n">
         <v>18</v>
       </c>
       <c r="AL20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AM20" s="5">
+      <c r="AM20" s="5" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -2952,7 +2684,7 @@
         <v>53</v>
       </c>
       <c r="I21" s="5"/>
-      <c r="J21" s="5">
+      <c r="J21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K21" s="5"/>
@@ -2989,26 +2721,26 @@
       <c r="AD21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AE21" s="6">
-        <v>2.5017000000000001E-2</v>
+      <c r="AE21" s="6" t="n">
+        <v>0.025017</v>
       </c>
       <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
       <c r="AI21" s="5"/>
-      <c r="AJ21" s="5">
+      <c r="AJ21" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK21" s="5">
+      <c r="AK21" s="5" t="n">
         <v>19</v>
       </c>
       <c r="AL21" s="9"/>
-      <c r="AM21" s="5">
+      <c r="AM21" s="5" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -3033,7 +2765,7 @@
         <v>53</v>
       </c>
       <c r="I22" s="5"/>
-      <c r="J22" s="5">
+      <c r="J22" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="5"/>
@@ -3070,26 +2802,26 @@
       <c r="AD22" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AE22" s="6">
-        <v>1.2992E-2</v>
+      <c r="AE22" s="6" t="n">
+        <v>0.012992</v>
       </c>
       <c r="AF22" s="5"/>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
       <c r="AI22" s="5"/>
-      <c r="AJ22" s="5">
+      <c r="AJ22" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK22" s="5">
+      <c r="AK22" s="5" t="n">
         <v>20</v>
       </c>
       <c r="AL22" s="9"/>
-      <c r="AM22" s="5">
+      <c r="AM22" s="5" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -3142,21 +2874,21 @@
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
-      <c r="AJ23" s="5">
+      <c r="AJ23" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK23" s="5">
+      <c r="AK23" s="5" t="n">
         <v>21</v>
       </c>
       <c r="AL23" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="AM23" s="5">
+      <c r="AM23" s="5" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -3181,7 +2913,7 @@
         <v>53</v>
       </c>
       <c r="I24" s="5"/>
-      <c r="J24" s="5">
+      <c r="J24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K24" s="5"/>
@@ -3218,26 +2950,26 @@
       <c r="AD24" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AE24" s="6">
-        <v>2.5017000000000001E-2</v>
+      <c r="AE24" s="6" t="n">
+        <v>0.025017</v>
       </c>
       <c r="AF24" s="5"/>
       <c r="AG24" s="5"/>
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
-      <c r="AJ24" s="5">
+      <c r="AJ24" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK24" s="5">
+      <c r="AK24" s="5" t="n">
         <v>22</v>
       </c>
       <c r="AL24" s="9"/>
-      <c r="AM24" s="5">
+      <c r="AM24" s="5" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -3262,7 +2994,7 @@
         <v>53</v>
       </c>
       <c r="I25" s="5"/>
-      <c r="J25" s="5">
+      <c r="J25" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K25" s="5"/>
@@ -3270,7 +3002,7 @@
       <c r="M25" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N25" s="5" t="n">
         <v>4607042430879</v>
       </c>
       <c r="O25" s="5"/>
@@ -3299,26 +3031,26 @@
       <c r="AD25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AE25" s="6">
-        <v>1.2992999999999999E-2</v>
+      <c r="AE25" s="6" t="n">
+        <v>0.012993</v>
       </c>
       <c r="AF25" s="5"/>
       <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
-      <c r="AJ25" s="5">
+      <c r="AJ25" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK25" s="5">
+      <c r="AK25" s="5" t="n">
         <v>23</v>
       </c>
       <c r="AL25" s="9"/>
-      <c r="AM25" s="5">
+      <c r="AM25" s="5" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -3343,7 +3075,7 @@
         <v>53</v>
       </c>
       <c r="I26" s="5"/>
-      <c r="J26" s="5">
+      <c r="J26" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="5"/>
@@ -3380,26 +3112,26 @@
       <c r="AD26" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AE26" s="6">
-        <v>1.2992999999999999E-2</v>
+      <c r="AE26" s="6" t="n">
+        <v>0.012993</v>
       </c>
       <c r="AF26" s="5"/>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
-      <c r="AJ26" s="5">
+      <c r="AJ26" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK26" s="5">
+      <c r="AK26" s="5" t="n">
         <v>24</v>
       </c>
       <c r="AL26" s="9"/>
-      <c r="AM26" s="5">
+      <c r="AM26" s="5" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -3414,7 +3146,7 @@
       <c r="E27" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="10" t="s">
         <v>114</v>
       </c>
       <c r="G27" s="5" t="s">
@@ -3452,21 +3184,21 @@
       <c r="AG27" s="5"/>
       <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
-      <c r="AJ27" s="5">
+      <c r="AJ27" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK27" s="5">
+      <c r="AK27" s="5" t="n">
         <v>25</v>
       </c>
       <c r="AL27" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="AM27" s="5">
+      <c r="AM27" s="5" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -3491,7 +3223,7 @@
         <v>53</v>
       </c>
       <c r="I28" s="5"/>
-      <c r="J28" s="5">
+      <c r="J28" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K28" s="5"/>
@@ -3528,26 +3260,26 @@
       <c r="AD28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AE28" s="6">
-        <v>2.5017000000000001E-2</v>
+      <c r="AE28" s="6" t="n">
+        <v>0.025017</v>
       </c>
       <c r="AF28" s="5"/>
       <c r="AG28" s="5"/>
       <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
-      <c r="AJ28" s="5">
+      <c r="AJ28" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK28" s="5">
+      <c r="AK28" s="5" t="n">
         <v>626</v>
       </c>
       <c r="AL28" s="9"/>
-      <c r="AM28" s="5">
+      <c r="AM28" s="5" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
+    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -3572,7 +3304,7 @@
         <v>53</v>
       </c>
       <c r="I29" s="5"/>
-      <c r="J29" s="5">
+      <c r="J29" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K29" s="5"/>
@@ -3580,7 +3312,7 @@
       <c r="M29" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="N29" s="5">
+      <c r="N29" s="5" t="n">
         <v>4607174577787</v>
       </c>
       <c r="O29" s="5"/>
@@ -3609,26 +3341,26 @@
       <c r="AD29" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AE29" s="6">
-        <v>1.2992999999999999E-2</v>
+      <c r="AE29" s="6" t="n">
+        <v>0.012993</v>
       </c>
       <c r="AF29" s="5"/>
       <c r="AG29" s="5"/>
       <c r="AH29" s="5"/>
       <c r="AI29" s="5"/>
-      <c r="AJ29" s="5">
+      <c r="AJ29" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK29" s="5">
+      <c r="AK29" s="5" t="n">
         <v>627</v>
       </c>
       <c r="AL29" s="9"/>
-      <c r="AM29" s="5">
+      <c r="AM29" s="5" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
+    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -3653,7 +3385,7 @@
         <v>53</v>
       </c>
       <c r="I30" s="5"/>
-      <c r="J30" s="5">
+      <c r="J30" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K30" s="5"/>
@@ -3661,7 +3393,7 @@
       <c r="M30" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="N30" s="5">
+      <c r="N30" s="5" t="n">
         <v>4650075420980</v>
       </c>
       <c r="O30" s="5"/>
@@ -3690,26 +3422,26 @@
       <c r="AD30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AE30" s="6">
-        <v>6.9969999999999997E-3</v>
+      <c r="AE30" s="6" t="n">
+        <v>0.006997</v>
       </c>
       <c r="AF30" s="5"/>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
       <c r="AI30" s="5"/>
-      <c r="AJ30" s="5">
+      <c r="AJ30" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK30" s="5">
+      <c r="AK30" s="5" t="n">
         <v>628</v>
       </c>
       <c r="AL30" s="9"/>
-      <c r="AM30" s="5">
+      <c r="AM30" s="5" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
+    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -3734,7 +3466,7 @@
         <v>53</v>
       </c>
       <c r="I31" s="5"/>
-      <c r="J31" s="5">
+      <c r="J31" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K31" s="5"/>
@@ -3771,26 +3503,26 @@
       <c r="AD31" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AE31" s="6">
-        <v>6.9969999999999997E-3</v>
+      <c r="AE31" s="6" t="n">
+        <v>0.006997</v>
       </c>
       <c r="AF31" s="5"/>
       <c r="AG31" s="5"/>
       <c r="AH31" s="5"/>
       <c r="AI31" s="5"/>
-      <c r="AJ31" s="5">
+      <c r="AJ31" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK31" s="5">
+      <c r="AK31" s="5" t="n">
         <v>629</v>
       </c>
       <c r="AL31" s="9"/>
-      <c r="AM31" s="5">
+      <c r="AM31" s="5" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
+    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -3839,10 +3571,10 @@
       <c r="AG32" s="5"/>
       <c r="AH32" s="5"/>
       <c r="AI32" s="5"/>
-      <c r="AJ32" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK32" s="5">
+      <c r="AJ32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="5" t="n">
         <v>310</v>
       </c>
       <c r="AL32" s="7" t="s">
@@ -3850,8 +3582,8 @@
       </c>
       <c r="AM32" s="5"/>
     </row>
-    <row r="33" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
+    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -3900,21 +3632,21 @@
       <c r="AG33" s="5"/>
       <c r="AH33" s="5"/>
       <c r="AI33" s="5"/>
-      <c r="AJ33" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK33" s="5">
+      <c r="AJ33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK33" s="5" t="n">
         <v>311</v>
       </c>
-      <c r="AL33" s="9">
+      <c r="AL33" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="AM33" s="5">
+      <c r="AM33" s="5" t="n">
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
+    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -3964,7 +3696,7 @@
       <c r="AD34" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="AE34" s="6">
+      <c r="AE34" s="6" t="n">
         <v>0.08</v>
       </c>
       <c r="AF34" s="5"/>
@@ -3973,21 +3705,21 @@
         <v>140</v>
       </c>
       <c r="AI34" s="5"/>
-      <c r="AJ34" s="5">
+      <c r="AJ34" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK34" s="5">
+      <c r="AK34" s="5" t="n">
         <v>26</v>
       </c>
       <c r="AL34" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="AM34" s="5">
+      <c r="AM34" s="5" t="n">
         <v>311</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
+    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -4012,7 +3744,7 @@
         <v>144</v>
       </c>
       <c r="I35" s="5"/>
-      <c r="J35" s="5">
+      <c r="J35" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K35" s="5"/>
@@ -4052,19 +3784,19 @@
         <v>149</v>
       </c>
       <c r="AI35" s="5"/>
-      <c r="AJ35" s="5">
+      <c r="AJ35" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK35" s="5">
+      <c r="AK35" s="5" t="n">
         <v>27</v>
       </c>
       <c r="AL35" s="9"/>
-      <c r="AM35" s="5">
+      <c r="AM35" s="5" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
+    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="n">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -4089,7 +3821,7 @@
         <v>152</v>
       </c>
       <c r="I36" s="5"/>
-      <c r="J36" s="5">
+      <c r="J36" s="5" t="n">
         <v>0.01</v>
       </c>
       <c r="K36" s="5"/>
@@ -4127,19 +3859,19 @@
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
-      <c r="AJ36" s="5">
+      <c r="AJ36" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK36" s="5">
+      <c r="AK36" s="5" t="n">
         <v>28</v>
       </c>
       <c r="AL36" s="9"/>
-      <c r="AM36" s="5">
+      <c r="AM36" s="5" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
+    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="n">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -4188,21 +3920,21 @@
       <c r="AG37" s="5"/>
       <c r="AH37" s="5"/>
       <c r="AI37" s="5"/>
-      <c r="AJ37" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK37" s="5">
+      <c r="AJ37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="5" t="n">
         <v>312</v>
       </c>
       <c r="AL37" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="AM37" s="5">
+      <c r="AM37" s="5" t="n">
         <v>310</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
+    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -4227,7 +3959,7 @@
         <v>160</v>
       </c>
       <c r="I38" s="5"/>
-      <c r="J38" s="5">
+      <c r="J38" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="5"/>
@@ -4260,7 +3992,7 @@
       <c r="AD38" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AE38" s="6">
+      <c r="AE38" s="6" t="n">
         <v>0.04</v>
       </c>
       <c r="AF38" s="5"/>
@@ -4271,19 +4003,19 @@
       <c r="AI38" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AJ38" s="5">
+      <c r="AJ38" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK38" s="5">
+      <c r="AK38" s="5" t="n">
         <v>29</v>
       </c>
       <c r="AL38" s="9"/>
-      <c r="AM38" s="5">
+      <c r="AM38" s="5" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
+    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -4308,7 +4040,7 @@
         <v>166</v>
       </c>
       <c r="I39" s="5"/>
-      <c r="J39" s="5">
+      <c r="J39" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K39" s="5"/>
@@ -4341,7 +4073,7 @@
       <c r="AD39" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="AE39" s="6">
+      <c r="AE39" s="6" t="n">
         <v>0.04</v>
       </c>
       <c r="AF39" s="5"/>
@@ -4352,19 +4084,19 @@
       <c r="AI39" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AJ39" s="5">
+      <c r="AJ39" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK39" s="5">
+      <c r="AK39" s="5" t="n">
         <v>30</v>
       </c>
       <c r="AL39" s="9"/>
-      <c r="AM39" s="5">
+      <c r="AM39" s="5" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
+    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -4390,10 +4122,10 @@
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="5">
-        <v>1</v>
-      </c>
-      <c r="L40" s="5">
+      <c r="K40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" s="5" t="n">
         <v>15</v>
       </c>
       <c r="M40" s="5" t="s">
@@ -4424,7 +4156,7 @@
       <c r="AD40" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AE40" s="6">
+      <c r="AE40" s="6" t="n">
         <v>0.04</v>
       </c>
       <c r="AF40" s="5"/>
@@ -4435,19 +4167,19 @@
       <c r="AI40" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AJ40" s="5">
+      <c r="AJ40" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK40" s="5">
+      <c r="AK40" s="5" t="n">
         <v>31</v>
       </c>
       <c r="AL40" s="9"/>
-      <c r="AM40" s="5">
+      <c r="AM40" s="5" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
+    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -4496,10 +4228,10 @@
       <c r="AG41" s="5"/>
       <c r="AH41" s="5"/>
       <c r="AI41" s="5"/>
-      <c r="AJ41" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK41" s="5">
+      <c r="AJ41" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK41" s="5" t="n">
         <v>400</v>
       </c>
       <c r="AL41" s="7" t="s">
@@ -4507,8 +4239,8 @@
       </c>
       <c r="AM41" s="5"/>
     </row>
-    <row r="42" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5">
+    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="n">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -4533,7 +4265,7 @@
         <v>53</v>
       </c>
       <c r="I42" s="5"/>
-      <c r="J42" s="5">
+      <c r="J42" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K42" s="5"/>
@@ -4574,26 +4306,26 @@
       <c r="AD42" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AE42" s="6">
+      <c r="AE42" s="6" t="n">
         <v>0.12</v>
       </c>
       <c r="AF42" s="5"/>
       <c r="AG42" s="5"/>
       <c r="AH42" s="5"/>
       <c r="AI42" s="5"/>
-      <c r="AJ42" s="5">
+      <c r="AJ42" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK42" s="5">
+      <c r="AK42" s="5" t="n">
         <v>32</v>
       </c>
       <c r="AL42" s="9"/>
-      <c r="AM42" s="5">
+      <c r="AM42" s="5" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
+    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="n">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -4614,11 +4346,11 @@
       <c r="G43" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="H43" s="11" t="s">
-        <v>231</v>
+      <c r="H43" s="8" t="s">
+        <v>186</v>
       </c>
       <c r="I43" s="5"/>
-      <c r="J43" s="5">
+      <c r="J43" s="5" t="n">
         <v>2</v>
       </c>
       <c r="K43" s="5"/>
@@ -4628,7 +4360,7 @@
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
@@ -4649,28 +4381,28 @@
       <c r="AD43" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AE43" s="6">
-        <v>0.28000000000000003</v>
+      <c r="AE43" s="6" t="n">
+        <v>0.28</v>
       </c>
       <c r="AF43" s="5"/>
       <c r="AG43" s="5"/>
       <c r="AH43" s="5"/>
       <c r="AI43" s="5"/>
-      <c r="AJ43" s="5">
+      <c r="AJ43" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK43" s="5">
+      <c r="AK43" s="5" t="n">
         <v>34</v>
       </c>
       <c r="AL43" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="AM43" s="5">
+        <v>188</v>
+      </c>
+      <c r="AM43" s="5" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
+    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="n">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -4686,25 +4418,25 @@
         <v>183</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>53</v>
       </c>
       <c r="I44" s="5"/>
-      <c r="J44" s="5">
+      <c r="J44" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O44" s="5" t="s">
         <v>179</v>
@@ -4739,19 +4471,19 @@
       <c r="AG44" s="5"/>
       <c r="AH44" s="5"/>
       <c r="AI44" s="5"/>
-      <c r="AJ44" s="5">
+      <c r="AJ44" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK44" s="5">
+      <c r="AK44" s="5" t="n">
         <v>35</v>
       </c>
       <c r="AL44" s="9"/>
-      <c r="AM44" s="5">
+      <c r="AM44" s="5" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
+    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="n">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -4767,25 +4499,25 @@
         <v>183</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H45" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="H45" s="8" t="s">
         <v>53</v>
       </c>
       <c r="I45" s="5"/>
-      <c r="J45" s="5">
+      <c r="J45" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
@@ -4817,22 +4549,22 @@
       <c r="AF45" s="5"/>
       <c r="AG45" s="5"/>
       <c r="AH45" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AI45" s="5"/>
-      <c r="AJ45" s="5">
+      <c r="AJ45" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK45" s="5">
+      <c r="AK45" s="5" t="n">
         <v>36</v>
       </c>
       <c r="AL45" s="9"/>
-      <c r="AM45" s="5">
+      <c r="AM45" s="5" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
+    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="n">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -4842,22 +4574,22 @@
         <v>40</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
@@ -4868,7 +4600,7 @@
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
@@ -4888,16 +4620,16 @@
       <c r="AH46" s="5"/>
       <c r="AI46" s="5"/>
       <c r="AJ46" s="5"/>
-      <c r="AK46" s="5">
+      <c r="AK46" s="5" t="n">
         <v>37</v>
       </c>
       <c r="AL46" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM46" s="5"/>
     </row>
-    <row r="47" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
+    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="n">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -4907,35 +4639,35 @@
         <v>40</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>174</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
-      <c r="N47" s="10" t="s">
-        <v>209</v>
+      <c r="N47" s="11" t="s">
+        <v>210</v>
       </c>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
       <c r="R47" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
@@ -4955,16 +4687,16 @@
       <c r="AH47" s="5"/>
       <c r="AI47" s="5"/>
       <c r="AJ47" s="5"/>
-      <c r="AK47" s="5">
+      <c r="AK47" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="AL47" s="9">
+      <c r="AL47" s="9" t="n">
         <v>32</v>
       </c>
       <c r="AM47" s="5"/>
     </row>
-    <row r="48" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
+    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="n">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -4974,35 +4706,35 @@
         <v>40</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
-      <c r="N48" s="10" t="s">
-        <v>213</v>
+      <c r="N48" s="11" t="s">
+        <v>214</v>
       </c>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
       <c r="R48" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
@@ -5022,16 +4754,16 @@
       <c r="AH48" s="5"/>
       <c r="AI48" s="5"/>
       <c r="AJ48" s="5"/>
-      <c r="AK48" s="5">
-        <v>39</v>
-      </c>
-      <c r="AL48" s="9">
+      <c r="AK48" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="AL48" s="9" t="n">
         <v>33</v>
       </c>
       <c r="AM48" s="5"/>
     </row>
-    <row r="49" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
+    <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="n">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -5041,37 +4773,37 @@
         <v>40</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="N49" s="10" t="s">
         <v>217</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
       <c r="R49" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
@@ -5091,16 +4823,16 @@
       <c r="AH49" s="5"/>
       <c r="AI49" s="5"/>
       <c r="AJ49" s="5"/>
-      <c r="AK49" s="5">
-        <v>40</v>
-      </c>
-      <c r="AL49" s="9">
+      <c r="AK49" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL49" s="9" t="n">
         <v>34</v>
       </c>
       <c r="AM49" s="5"/>
     </row>
-    <row r="50" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
+    <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="n">
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -5110,37 +4842,37 @@
         <v>40</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>183</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="N50" s="10" t="s">
-        <v>220</v>
+        <v>217</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>221</v>
       </c>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
       <c r="R50" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
@@ -5160,16 +4892,16 @@
       <c r="AH50" s="5"/>
       <c r="AI50" s="5"/>
       <c r="AJ50" s="5"/>
-      <c r="AK50" s="5">
+      <c r="AK50" s="5" t="n">
         <v>42</v>
       </c>
       <c r="AL50" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM50" s="5"/>
     </row>
-    <row r="51" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="5">
+    <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="n">
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -5179,35 +4911,35 @@
         <v>40</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
       <c r="R51" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
@@ -5229,14 +4961,14 @@
       <c r="AH51" s="5"/>
       <c r="AI51" s="5"/>
       <c r="AJ51" s="5"/>
-      <c r="AK51" s="5">
+      <c r="AK51" s="5" t="n">
         <v>43</v>
       </c>
       <c r="AL51" s="9"/>
       <c r="AM51" s="5"/>
     </row>
-    <row r="52" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
+    <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="n">
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -5246,20 +4978,20 @@
         <v>40</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
@@ -5270,7 +5002,7 @@
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
@@ -5290,15 +5022,21 @@
       <c r="AH52" s="5"/>
       <c r="AI52" s="5"/>
       <c r="AJ52" s="5"/>
-      <c r="AK52" s="5">
+      <c r="AK52" s="5" t="n">
         <v>401</v>
       </c>
       <c r="AL52" s="9"/>
       <c r="AM52" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM52" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <autoFilter ref="A1:AM52"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC FastFood.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC FastFood.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A928167B-4BAA-412B-B91C-97E4253A4D8E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CD1E0E-0AD8-4D46-9EF9-1CB3DBCCF062}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="233">
   <si>
     <t>Sorting</t>
   </si>
@@ -220,9 +220,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Panoramic Photo</t>
-  </si>
-  <si>
     <t>BINARY</t>
   </si>
   <si>
@@ -771,7 +768,13 @@
     <t>Integer</t>
   </si>
   <si>
-    <t>Menu Board, Cash Zone, SS_Menu Board, SS_Cash Zone</t>
+    <t>Panoramic Photo, SS_Panoramic Photo</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler, SS_Panoramic photo of Cooler</t>
+  </si>
+  <si>
+    <t>Menu Board, Cash Zone, SS_Cash Zone - Canteen, QSR, SS_Menu Board - Canteen, QSR</t>
   </si>
 </sst>
 </file>
@@ -1264,9 +1267,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK52"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="T1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X32" sqref="X32"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X43" sqref="X43:X45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1576,14 +1579,14 @@
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="6" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE4" s="7">
         <v>2.7028E-2</v>
@@ -1620,10 +1623,10 @@
         <v>45</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>53</v>
@@ -1635,7 +1638,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N5" s="6">
         <v>5449000131805</v>
@@ -1657,14 +1660,14 @@
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
       <c r="Y5" s="6" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE5" s="7">
         <v>2.7028E-2</v>
@@ -1701,10 +1704,10 @@
         <v>45</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>53</v>
@@ -1716,7 +1719,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N6" s="6">
         <v>5449000011527</v>
@@ -1738,14 +1741,14 @@
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="6" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE6" s="7">
         <v>2.7005000000000001E-2</v>
@@ -1782,10 +1785,10 @@
         <v>45</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>53</v>
@@ -1797,7 +1800,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N7" s="6">
         <v>5449000014535</v>
@@ -1819,14 +1822,14 @@
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="6" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE7" s="7">
         <v>2.7005000000000001E-2</v>
@@ -1863,10 +1866,10 @@
         <v>45</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>53</v>
@@ -1878,7 +1881,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N8" s="6">
         <v>54491472</v>
@@ -1900,14 +1903,14 @@
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
       <c r="AD8" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE8" s="7">
         <v>2.7005000000000001E-2</v>
@@ -1944,10 +1947,10 @@
         <v>45</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>53</v>
@@ -1959,7 +1962,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N9" s="6">
         <v>5449000131836</v>
@@ -1981,14 +1984,14 @@
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="6" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
       <c r="AD9" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE9" s="7">
         <v>2.7005000000000001E-2</v>
@@ -2025,10 +2028,10 @@
         <v>45</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>53</v>
@@ -2040,7 +2043,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N10" s="6">
         <v>5449000098917</v>
@@ -2062,14 +2065,14 @@
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="6" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
       <c r="AD10" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE10" s="7">
         <v>1.2489E-2</v>
@@ -2106,10 +2109,10 @@
         <v>45</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>53</v>
@@ -2121,7 +2124,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N11" s="6">
         <v>40822938</v>
@@ -2143,14 +2146,14 @@
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="6" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
       <c r="AD11" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE11" s="7">
         <v>1.2489E-2</v>
@@ -2187,10 +2190,10 @@
         <v>45</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>53</v>
@@ -2202,7 +2205,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N12" s="6">
         <v>42099697</v>
@@ -2224,14 +2227,14 @@
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="6" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE12" s="7">
         <v>1.2489E-2</v>
@@ -2268,10 +2271,10 @@
         <v>45</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>53</v>
@@ -2283,7 +2286,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N13" s="6">
         <v>54491069</v>
@@ -2305,14 +2308,14 @@
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="6" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
       <c r="AD13" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE13" s="7">
         <v>1.2489E-2</v>
@@ -2349,10 +2352,10 @@
         <v>45</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>53</v>
@@ -2364,10 +2367,10 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -2386,14 +2389,14 @@
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="6" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
       <c r="AD14" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE14" s="7">
         <v>6.9899999999999997E-3</v>
@@ -2430,10 +2433,10 @@
         <v>45</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>53</v>
@@ -2445,7 +2448,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N15" s="6">
         <v>5449000064110</v>
@@ -2467,14 +2470,14 @@
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="6" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE15" s="7">
         <v>6.9899999999999997E-3</v>
@@ -2511,10 +2514,10 @@
         <v>45</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>53</v>
@@ -2526,7 +2529,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N16" s="6">
         <v>5449000030856</v>
@@ -2548,14 +2551,14 @@
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="6" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE16" s="7">
         <v>6.9899999999999997E-3</v>
@@ -2589,13 +2592,13 @@
         <v>41</v>
       </c>
       <c r="E17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>48</v>
@@ -2636,7 +2639,7 @@
         <v>15</v>
       </c>
       <c r="AL17" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM17" s="6">
         <v>300</v>
@@ -2656,13 +2659,13 @@
         <v>41</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>53</v>
@@ -2674,7 +2677,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N18" s="6">
         <v>40822426</v>
@@ -2696,14 +2699,14 @@
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="6" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE18" s="7">
         <v>1.2991000000000001E-2</v>
@@ -2737,13 +2740,13 @@
         <v>41</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>53</v>
@@ -2755,7 +2758,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N19" s="6">
         <v>90494406</v>
@@ -2777,14 +2780,14 @@
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="6" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
       <c r="AD19" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE19" s="7">
         <v>1.2991000000000001E-2</v>
@@ -2818,13 +2821,13 @@
         <v>41</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>48</v>
@@ -2865,7 +2868,7 @@
         <v>18</v>
       </c>
       <c r="AL20" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM20" s="6">
         <v>300</v>
@@ -2885,13 +2888,13 @@
         <v>41</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F21" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>53</v>
@@ -2903,10 +2906,10 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
@@ -2925,14 +2928,14 @@
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="6" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
       <c r="AD21" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE21" s="7">
         <v>2.5017000000000001E-2</v>
@@ -2966,13 +2969,13 @@
         <v>41</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>53</v>
@@ -2984,10 +2987,10 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -3006,14 +3009,14 @@
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="6" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
       <c r="AD22" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE22" s="7">
         <v>1.2992E-2</v>
@@ -3047,13 +3050,13 @@
         <v>41</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F23" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>48</v>
@@ -3094,7 +3097,7 @@
         <v>21</v>
       </c>
       <c r="AL23" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AM23" s="6">
         <v>300</v>
@@ -3114,13 +3117,13 @@
         <v>41</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>53</v>
@@ -3132,10 +3135,10 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -3154,14 +3157,14 @@
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="6" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
       <c r="AD24" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE24" s="7">
         <v>2.5017000000000001E-2</v>
@@ -3195,13 +3198,13 @@
         <v>41</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F25" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>53</v>
@@ -3213,7 +3216,7 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N25" s="6">
         <v>4607042430879</v>
@@ -3235,14 +3238,14 @@
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
       <c r="Y25" s="6" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
       <c r="AD25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE25" s="7">
         <v>1.2992999999999999E-2</v>
@@ -3276,13 +3279,13 @@
         <v>41</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F26" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>53</v>
@@ -3294,10 +3297,10 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -3316,14 +3319,14 @@
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="6" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="Z26" s="6"/>
       <c r="AA26" s="6"/>
       <c r="AB26" s="6"/>
       <c r="AC26" s="6"/>
       <c r="AD26" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE26" s="7">
         <v>1.2992999999999999E-2</v>
@@ -3357,13 +3360,13 @@
         <v>41</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F27" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>48</v>
@@ -3404,7 +3407,7 @@
         <v>25</v>
       </c>
       <c r="AL27" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AM27" s="6">
         <v>300</v>
@@ -3424,13 +3427,13 @@
         <v>41</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F28" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>53</v>
@@ -3442,10 +3445,10 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="N28" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -3464,14 +3467,14 @@
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
       <c r="Y28" s="6" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="Z28" s="6"/>
       <c r="AA28" s="6"/>
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
       <c r="AD28" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE28" s="7">
         <v>2.5017000000000001E-2</v>
@@ -3505,13 +3508,13 @@
         <v>41</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F29" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>53</v>
@@ -3523,7 +3526,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N29" s="6">
         <v>4607174577787</v>
@@ -3545,14 +3548,14 @@
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
       <c r="Y29" s="6" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
       <c r="AD29" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE29" s="7">
         <v>1.2992999999999999E-2</v>
@@ -3586,13 +3589,13 @@
         <v>41</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F30" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>53</v>
@@ -3604,7 +3607,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N30" s="6">
         <v>4650075420980</v>
@@ -3626,14 +3629,14 @@
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
       <c r="Y30" s="6" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="Z30" s="6"/>
       <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
       <c r="AD30" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE30" s="7">
         <v>6.9969999999999997E-3</v>
@@ -3667,13 +3670,13 @@
         <v>41</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F31" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>53</v>
@@ -3685,10 +3688,10 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N31" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
@@ -3707,14 +3710,14 @@
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="6" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="Z31" s="6"/>
       <c r="AA31" s="6"/>
       <c r="AB31" s="6"/>
       <c r="AC31" s="6"/>
       <c r="AD31" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE31" s="7">
         <v>6.9969999999999997E-3</v>
@@ -3749,10 +3752,10 @@
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>41</v>
@@ -3791,7 +3794,7 @@
         <v>310</v>
       </c>
       <c r="AL32" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM32" s="6"/>
     </row>
@@ -3810,10 +3813,10 @@
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>41</v>
@@ -3872,16 +3875,16 @@
         <v>41</v>
       </c>
       <c r="E34" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
@@ -3892,7 +3895,7 @@
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
@@ -3907,7 +3910,7 @@
       <c r="AB34" s="6"/>
       <c r="AC34" s="6"/>
       <c r="AD34" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AE34" s="7">
         <v>0.08</v>
@@ -3915,7 +3918,7 @@
       <c r="AF34" s="6"/>
       <c r="AG34" s="6"/>
       <c r="AH34" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AI34" s="6"/>
       <c r="AJ34" s="6">
@@ -3925,7 +3928,7 @@
         <v>26</v>
       </c>
       <c r="AL34" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AM34" s="6">
         <v>311</v>
@@ -3945,16 +3948,16 @@
         <v>41</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F35" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="H35" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6">
@@ -3963,23 +3966,23 @@
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="N35" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="N35" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
       <c r="W35" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X35" s="6"/>
       <c r="Y35" s="6"/>
@@ -3988,13 +3991,13 @@
       <c r="AB35" s="6"/>
       <c r="AC35" s="6"/>
       <c r="AD35" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE35" s="7"/>
       <c r="AF35" s="6"/>
       <c r="AG35" s="6"/>
       <c r="AH35" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AI35" s="6"/>
       <c r="AJ35" s="6">
@@ -4022,16 +4025,16 @@
         <v>41</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F36" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="H36" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6">
@@ -4040,23 +4043,23 @@
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="N36" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="N36" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
       <c r="W36" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X36" s="6"/>
       <c r="Y36" s="6"/>
@@ -4065,7 +4068,7 @@
       <c r="AB36" s="6"/>
       <c r="AC36" s="6"/>
       <c r="AD36" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE36" s="7"/>
       <c r="AF36" s="6"/>
@@ -4098,10 +4101,10 @@
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>41</v>
@@ -4140,7 +4143,7 @@
         <v>312</v>
       </c>
       <c r="AL37" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM37" s="6">
         <v>310</v>
@@ -4160,16 +4163,16 @@
         <v>41</v>
       </c>
       <c r="E38" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="G38" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="H38" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="6">
@@ -4179,13 +4182,13 @@
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
@@ -4195,7 +4198,7 @@
         <v>56</v>
       </c>
       <c r="X38" s="6" t="s">
-        <v>161</v>
+        <v>231</v>
       </c>
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
@@ -4203,7 +4206,7 @@
       <c r="AB38" s="6"/>
       <c r="AC38" s="6"/>
       <c r="AD38" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE38" s="7">
         <v>0.04</v>
@@ -4211,10 +4214,10 @@
       <c r="AF38" s="6"/>
       <c r="AG38" s="6"/>
       <c r="AH38" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AI38" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ38" s="6">
         <v>2</v>
@@ -4241,16 +4244,16 @@
         <v>41</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F39" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="H39" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6">
@@ -4259,23 +4262,23 @@
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="N39" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="N39" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
       <c r="R39" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
       <c r="W39" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X39" s="6"/>
       <c r="Y39" s="6"/>
@@ -4284,7 +4287,7 @@
       <c r="AB39" s="6"/>
       <c r="AC39" s="6"/>
       <c r="AD39" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AE39" s="7">
         <v>0.04</v>
@@ -4292,10 +4295,10 @@
       <c r="AF39" s="6"/>
       <c r="AG39" s="6"/>
       <c r="AH39" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AI39" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ39" s="6">
         <v>2</v>
@@ -4322,16 +4325,16 @@
         <v>41</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F40" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="H40" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
@@ -4342,23 +4345,23 @@
         <v>15</v>
       </c>
       <c r="M40" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="N40" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="N40" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
       <c r="R40" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S40" s="6"/>
       <c r="T40" s="6"/>
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
       <c r="W40" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X40" s="6"/>
       <c r="Y40" s="6"/>
@@ -4367,7 +4370,7 @@
       <c r="AB40" s="6"/>
       <c r="AC40" s="6"/>
       <c r="AD40" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE40" s="7">
         <v>0.04</v>
@@ -4375,10 +4378,10 @@
       <c r="AF40" s="6"/>
       <c r="AG40" s="6"/>
       <c r="AH40" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AI40" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ40" s="6">
         <v>2</v>
@@ -4406,10 +4409,10 @@
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>41</v>
@@ -4448,7 +4451,7 @@
         <v>400</v>
       </c>
       <c r="AL41" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AM41" s="6"/>
     </row>
@@ -4466,13 +4469,13 @@
         <v>41</v>
       </c>
       <c r="E42" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="G42" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>176</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>53</v>
@@ -4484,32 +4487,32 @@
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N42" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="N42" s="6" t="s">
+      <c r="O42" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="O42" s="6" t="s">
-        <v>179</v>
-      </c>
       <c r="P42" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q42" s="6" t="s">
         <v>54</v>
       </c>
       <c r="R42" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S42" s="6"/>
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
       <c r="W42" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X42" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
@@ -4517,7 +4520,7 @@
       <c r="AB42" s="6"/>
       <c r="AC42" s="6"/>
       <c r="AD42" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE42" s="7">
         <v>0.12</v>
@@ -4551,16 +4554,16 @@
         <v>41</v>
       </c>
       <c r="E43" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="G43" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="H43" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6">
@@ -4573,7 +4576,7 @@
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
@@ -4581,10 +4584,10 @@
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
       <c r="W43" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X43" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
@@ -4592,7 +4595,7 @@
       <c r="AB43" s="6"/>
       <c r="AC43" s="6"/>
       <c r="AD43" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE43" s="7">
         <v>0.28000000000000003</v>
@@ -4608,7 +4611,7 @@
         <v>34</v>
       </c>
       <c r="AL43" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AM43" s="6">
         <v>400</v>
@@ -4628,13 +4631,13 @@
         <v>41</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F44" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>53</v>
@@ -4646,13 +4649,13 @@
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="N44" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="N44" s="6" t="s">
-        <v>191</v>
-      </c>
       <c r="O44" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P44" s="6"/>
       <c r="Q44" s="6" t="s">
@@ -4666,10 +4669,10 @@
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
       <c r="W44" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X44" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
@@ -4677,7 +4680,7 @@
       <c r="AB44" s="6"/>
       <c r="AC44" s="6"/>
       <c r="AD44" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE44" s="7"/>
       <c r="AF44" s="6"/>
@@ -4709,13 +4712,13 @@
         <v>41</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F45" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>53</v>
@@ -4727,10 +4730,10 @@
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="N45" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="N45" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
@@ -4745,10 +4748,10 @@
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
       <c r="W45" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X45" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
@@ -4756,13 +4759,13 @@
       <c r="AB45" s="6"/>
       <c r="AC45" s="6"/>
       <c r="AD45" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE45" s="7"/>
       <c r="AF45" s="6"/>
       <c r="AG45" s="6"/>
       <c r="AH45" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AI45" s="6"/>
       <c r="AJ45" s="6">
@@ -4787,22 +4790,22 @@
         <v>40</v>
       </c>
       <c r="D46" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="F46" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="G46" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="H46" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="I46" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
@@ -4813,7 +4816,7 @@
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
       <c r="R46" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
@@ -4837,7 +4840,7 @@
         <v>37</v>
       </c>
       <c r="AL46" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AM46" s="6"/>
     </row>
@@ -4852,35 +4855,35 @@
         <v>40</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F47" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="H47" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="I47" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
       <c r="R47" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S47" s="6"/>
       <c r="T47" s="6"/>
@@ -4919,35 +4922,35 @@
         <v>40</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E48" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="G48" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G48" s="6" t="s">
-        <v>212</v>
-      </c>
       <c r="H48" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="I48" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
@@ -4986,37 +4989,37 @@
         <v>40</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E49" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="F49" s="6" t="s">
-        <v>215</v>
-      </c>
       <c r="G49" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H49" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="I49" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N49" s="10" t="s">
         <v>216</v>
-      </c>
-      <c r="N49" s="10" t="s">
-        <v>217</v>
       </c>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
       <c r="R49" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
@@ -5055,37 +5058,37 @@
         <v>40</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F50" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="G50" s="6" t="s">
-        <v>219</v>
-      </c>
       <c r="H50" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="I50" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
       <c r="R50" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
@@ -5109,7 +5112,7 @@
         <v>42</v>
       </c>
       <c r="AL50" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AM50" s="6"/>
     </row>
@@ -5124,42 +5127,42 @@
         <v>40</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E51" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F51" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="G51" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="H51" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="H51" s="6" t="s">
-        <v>225</v>
-      </c>
       <c r="I51" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
       <c r="R51" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S51" s="6"/>
       <c r="T51" s="6"/>
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
       <c r="W51" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X51" s="6"/>
       <c r="Y51" s="6"/>
@@ -5191,20 +5194,20 @@
         <v>40</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="H52" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I52" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>230</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
@@ -5215,7 +5218,7 @@
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
       <c r="R52" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S52" s="6"/>
       <c r="T52" s="6"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC FastFood.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC FastFood.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\Downloads\CCRU new KPI\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CD1E0E-0AD8-4D46-9EF9-1CB3DBCCF062}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB9F7D51-4454-47B3-91B7-F3BCBB883EEA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FF" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">FF!$A$1:$AM$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FF!$A$1:$AO$52</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="240">
   <si>
     <t>Sorting</t>
   </si>
@@ -775,6 +775,27 @@
   </si>
   <si>
     <t>Menu Board, Cash Zone, SS_Cash Zone - Canteen, QSR, SS_Menu Board - Canteen, QSR</t>
+  </si>
+  <si>
+    <t>Category KPI Type</t>
+  </si>
+  <si>
+    <t>Category KPI Value</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>ice tea</t>
+  </si>
+  <si>
+    <t>Juices</t>
   </si>
 </sst>
 </file>
@@ -816,15 +837,21 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -847,12 +874,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -881,6 +923,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1265,20 +1313,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK52"/>
+  <dimension ref="A1:AMM52"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X43" sqref="X43:X45"/>
+      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="39.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="39.6640625" style="4"/>
-    <col min="1026" max="16384" width="39.6640625" style="5"/>
+    <col min="1" max="1027" width="39.7109375" style="4"/>
+    <col min="1028" max="16384" width="39.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1303,101 +1351,107 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1442,23 +1496,25 @@
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
       <c r="AD2" s="6"/>
-      <c r="AE2" s="7"/>
+      <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
+      <c r="AG2" s="7"/>
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
-      <c r="AJ2" s="6">
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6">
         <v>1</v>
       </c>
-      <c r="AK2" s="6">
+      <c r="AM2" s="6">
         <v>300</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AN2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AM2" s="6"/>
+      <c r="AO2" s="6"/>
     </row>
-    <row r="3" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1483,8 +1539,12 @@
       <c r="H3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="I3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>235</v>
+      </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -1504,28 +1564,30 @@
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
-      <c r="AD3" s="6" t="s">
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
+      <c r="AG3" s="7"/>
       <c r="AH3" s="6"/>
       <c r="AI3" s="6"/>
-      <c r="AJ3" s="6">
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6">
         <v>2</v>
       </c>
-      <c r="AK3" s="6">
+      <c r="AM3" s="6">
         <v>1</v>
       </c>
-      <c r="AL3" s="8" t="s">
+      <c r="AN3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AM3" s="6">
+      <c r="AO3" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1551,62 +1613,64 @@
         <v>53</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="6">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6">
         <v>1</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N4" s="6">
+      <c r="P4" s="6">
         <v>5449000000996</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6" t="s">
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
-      <c r="AD4" s="6" t="s">
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE4" s="7">
+      <c r="AG4" s="7">
         <v>2.7028E-2</v>
       </c>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
-      <c r="AJ4" s="6">
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6">
         <v>3</v>
       </c>
-      <c r="AK4" s="6">
+      <c r="AM4" s="6">
         <v>2</v>
       </c>
-      <c r="AL4" s="9"/>
-      <c r="AM4" s="6">
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1632,62 +1696,64 @@
         <v>53</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="6">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6">
         <v>1</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="6">
+      <c r="P5" s="6">
         <v>5449000131805</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="T5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
       <c r="U5" s="6"/>
-      <c r="V5" s="6" t="s">
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6" t="s">
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
-      <c r="AD5" s="6" t="s">
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE5" s="7">
+      <c r="AG5" s="7">
         <v>2.7028E-2</v>
       </c>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
-      <c r="AJ5" s="6">
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6">
         <v>3</v>
       </c>
-      <c r="AK5" s="6">
+      <c r="AM5" s="6">
         <v>3</v>
       </c>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="6">
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1713,62 +1779,64 @@
         <v>53</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="6">
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6">
         <v>1</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="6">
+      <c r="P6" s="6">
         <v>5449000011527</v>
       </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="T6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
       <c r="U6" s="6"/>
-      <c r="V6" s="6" t="s">
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6" t="s">
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
-      <c r="AD6" s="6" t="s">
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE6" s="7">
+      <c r="AG6" s="7">
         <v>2.7005000000000001E-2</v>
       </c>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
-      <c r="AJ6" s="6">
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6">
         <v>3</v>
       </c>
-      <c r="AK6" s="6">
+      <c r="AM6" s="6">
         <v>4</v>
       </c>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="6">
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1794,62 +1862,64 @@
         <v>53</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="6">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6">
         <v>1</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="6">
+      <c r="P7" s="6">
         <v>5449000014535</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="T7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
       <c r="U7" s="6"/>
-      <c r="V7" s="6" t="s">
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6" t="s">
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
-      <c r="AD7" s="6" t="s">
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE7" s="7">
+      <c r="AG7" s="7">
         <v>2.7005000000000001E-2</v>
       </c>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
-      <c r="AJ7" s="6">
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6">
         <v>3</v>
       </c>
-      <c r="AK7" s="6">
+      <c r="AM7" s="6">
         <v>5</v>
       </c>
-      <c r="AL7" s="9"/>
-      <c r="AM7" s="6">
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1875,62 +1945,64 @@
         <v>53</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="6">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6">
         <v>1</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N8" s="6">
+      <c r="P8" s="6">
         <v>54491472</v>
       </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="T8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
       <c r="U8" s="6"/>
-      <c r="V8" s="6" t="s">
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6" t="s">
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
-      <c r="AD8" s="6" t="s">
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE8" s="7">
+      <c r="AG8" s="7">
         <v>2.7005000000000001E-2</v>
       </c>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
-      <c r="AJ8" s="6">
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6">
         <v>3</v>
       </c>
-      <c r="AK8" s="6">
+      <c r="AM8" s="6">
         <v>6</v>
       </c>
-      <c r="AL8" s="9"/>
-      <c r="AM8" s="6">
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1956,62 +2028,64 @@
         <v>53</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="6">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6">
         <v>1</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N9" s="6">
+      <c r="P9" s="6">
         <v>5449000131836</v>
       </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="T9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
       <c r="U9" s="6"/>
-      <c r="V9" s="6" t="s">
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6" t="s">
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
-      <c r="AD9" s="6" t="s">
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE9" s="7">
+      <c r="AG9" s="7">
         <v>2.7005000000000001E-2</v>
       </c>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
-      <c r="AJ9" s="6">
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6">
         <v>3</v>
       </c>
-      <c r="AK9" s="6">
+      <c r="AM9" s="6">
         <v>7</v>
       </c>
-      <c r="AL9" s="9"/>
-      <c r="AM9" s="6">
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -2037,62 +2111,64 @@
         <v>53</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="6">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6">
         <v>1</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="N10" s="6">
+      <c r="P10" s="6">
         <v>5449000098917</v>
       </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6" t="s">
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="T10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="6" t="s">
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6" t="s">
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
-      <c r="AD10" s="6" t="s">
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE10" s="7">
+      <c r="AG10" s="7">
         <v>1.2489E-2</v>
       </c>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
-      <c r="AJ10" s="6">
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6">
         <v>3</v>
       </c>
-      <c r="AK10" s="6">
+      <c r="AM10" s="6">
         <v>8</v>
       </c>
-      <c r="AL10" s="9"/>
-      <c r="AM10" s="6">
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -2118,62 +2194,64 @@
         <v>53</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="6">
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6">
         <v>1</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="N11" s="6">
+      <c r="P11" s="6">
         <v>40822938</v>
       </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6" t="s">
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="T11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
       <c r="U11" s="6"/>
-      <c r="V11" s="6" t="s">
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6" t="s">
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
-      <c r="AD11" s="6" t="s">
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE11" s="7">
+      <c r="AG11" s="7">
         <v>1.2489E-2</v>
       </c>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
       <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
-      <c r="AJ11" s="6">
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6">
         <v>3</v>
       </c>
-      <c r="AK11" s="6">
+      <c r="AM11" s="6">
         <v>9</v>
       </c>
-      <c r="AL11" s="9"/>
-      <c r="AM11" s="6">
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -2199,62 +2277,64 @@
         <v>53</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="6">
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6">
         <v>1</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="N12" s="6">
+      <c r="P12" s="6">
         <v>42099697</v>
       </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6" t="s">
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="T12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
       <c r="U12" s="6"/>
-      <c r="V12" s="6" t="s">
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6" t="s">
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
-      <c r="AD12" s="6" t="s">
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE12" s="7">
+      <c r="AG12" s="7">
         <v>1.2489E-2</v>
       </c>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
-      <c r="AJ12" s="6">
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6">
         <v>3</v>
       </c>
-      <c r="AK12" s="6">
+      <c r="AM12" s="6">
         <v>10</v>
       </c>
-      <c r="AL12" s="9"/>
-      <c r="AM12" s="6">
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -2280,62 +2360,64 @@
         <v>53</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="6">
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6">
         <v>1</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="N13" s="6">
+      <c r="P13" s="6">
         <v>54491069</v>
       </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6" t="s">
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="T13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
       <c r="U13" s="6"/>
-      <c r="V13" s="6" t="s">
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6" t="s">
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
-      <c r="AD13" s="6" t="s">
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE13" s="7">
+      <c r="AG13" s="7">
         <v>1.2489E-2</v>
       </c>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
       <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
-      <c r="AJ13" s="6">
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6">
         <v>3</v>
       </c>
-      <c r="AK13" s="6">
+      <c r="AM13" s="6">
         <v>11</v>
       </c>
-      <c r="AL13" s="9"/>
-      <c r="AM13" s="6">
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -2361,62 +2443,64 @@
         <v>53</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="6">
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6">
         <v>1</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="P14" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6" t="s">
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="R14" s="6" t="s">
+      <c r="T14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
       <c r="U14" s="6"/>
-      <c r="V14" s="6" t="s">
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6" t="s">
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
-      <c r="AD14" s="6" t="s">
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE14" s="7">
+      <c r="AG14" s="7">
         <v>6.9899999999999997E-3</v>
       </c>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
-      <c r="AJ14" s="6">
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6">
         <v>3</v>
       </c>
-      <c r="AK14" s="6">
+      <c r="AM14" s="6">
         <v>12</v>
       </c>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="6">
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -2442,62 +2526,64 @@
         <v>53</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="6">
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6">
         <v>1</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="N15" s="6">
+      <c r="P15" s="6">
         <v>5449000064110</v>
       </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6" t="s">
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="T15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
       <c r="U15" s="6"/>
-      <c r="V15" s="6" t="s">
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6" t="s">
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
-      <c r="AD15" s="6" t="s">
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE15" s="7">
+      <c r="AG15" s="7">
         <v>6.9899999999999997E-3</v>
       </c>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
       <c r="AH15" s="6"/>
       <c r="AI15" s="6"/>
-      <c r="AJ15" s="6">
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6">
         <v>3</v>
       </c>
-      <c r="AK15" s="6">
+      <c r="AM15" s="6">
         <v>13</v>
       </c>
-      <c r="AL15" s="9"/>
-      <c r="AM15" s="6">
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -2523,62 +2609,64 @@
         <v>53</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="6">
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6">
         <v>1</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="N16" s="6">
+      <c r="P16" s="6">
         <v>5449000030856</v>
       </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6" t="s">
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="T16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
       <c r="U16" s="6"/>
-      <c r="V16" s="6" t="s">
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6" t="s">
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
-      <c r="AD16" s="6" t="s">
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE16" s="7">
+      <c r="AG16" s="7">
         <v>6.9899999999999997E-3</v>
       </c>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
       <c r="AH16" s="6"/>
       <c r="AI16" s="6"/>
-      <c r="AJ16" s="6">
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6">
         <v>3</v>
       </c>
-      <c r="AK16" s="6">
+      <c r="AM16" s="6">
         <v>14</v>
       </c>
-      <c r="AL16" s="9"/>
-      <c r="AM16" s="6">
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -2603,8 +2691,12 @@
       <c r="H17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="I17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>236</v>
+      </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -2624,28 +2716,30 @@
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
-      <c r="AD17" s="6" t="s">
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
+      <c r="AG17" s="7"/>
       <c r="AH17" s="6"/>
       <c r="AI17" s="6"/>
-      <c r="AJ17" s="6">
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6">
         <v>2</v>
       </c>
-      <c r="AK17" s="6">
+      <c r="AM17" s="6">
         <v>15</v>
       </c>
-      <c r="AL17" s="8" t="s">
+      <c r="AN17" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AM17" s="6">
+      <c r="AO17" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -2671,62 +2765,64 @@
         <v>53</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="6">
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6">
         <v>1</v>
       </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="N18" s="6">
+      <c r="P18" s="6">
         <v>40822426</v>
       </c>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6" t="s">
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="T18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
       <c r="U18" s="6"/>
-      <c r="V18" s="6" t="s">
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6" t="s">
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
-      <c r="AD18" s="6" t="s">
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE18" s="7">
+      <c r="AG18" s="7">
         <v>1.2991000000000001E-2</v>
       </c>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
       <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
-      <c r="AJ18" s="6">
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6">
         <v>3</v>
       </c>
-      <c r="AK18" s="6">
+      <c r="AM18" s="6">
         <v>16</v>
       </c>
-      <c r="AL18" s="9"/>
-      <c r="AM18" s="6">
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -2752,62 +2848,64 @@
         <v>53</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="6">
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6">
         <v>1</v>
       </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="N19" s="6">
+      <c r="P19" s="6">
         <v>90494406</v>
       </c>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6" t="s">
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="R19" s="6" t="s">
+      <c r="T19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
       <c r="U19" s="6"/>
-      <c r="V19" s="6" t="s">
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6" t="s">
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
-      <c r="AD19" s="6" t="s">
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE19" s="7">
+      <c r="AG19" s="7">
         <v>1.2991000000000001E-2</v>
       </c>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
       <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
-      <c r="AJ19" s="6">
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6">
         <v>3</v>
       </c>
-      <c r="AK19" s="6">
+      <c r="AM19" s="6">
         <v>17</v>
       </c>
-      <c r="AL19" s="9"/>
-      <c r="AM19" s="6">
+      <c r="AN19" s="9"/>
+      <c r="AO19" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -2832,8 +2930,12 @@
       <c r="H20" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="I20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>237</v>
+      </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
@@ -2853,28 +2955,30 @@
       <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
-      <c r="AD20" s="6" t="s">
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
+      <c r="AG20" s="7"/>
       <c r="AH20" s="6"/>
       <c r="AI20" s="6"/>
-      <c r="AJ20" s="6">
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6">
         <v>2</v>
       </c>
-      <c r="AK20" s="6">
+      <c r="AM20" s="6">
         <v>18</v>
       </c>
-      <c r="AL20" s="8" t="s">
+      <c r="AN20" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AM20" s="6">
+      <c r="AO20" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -2900,62 +3004,64 @@
         <v>53</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="6">
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6">
         <v>1</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="P21" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6" t="s">
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="R21" s="6" t="s">
+      <c r="T21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
       <c r="U21" s="6"/>
-      <c r="V21" s="6" t="s">
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6" t="s">
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
-      <c r="AD21" s="6" t="s">
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE21" s="7">
+      <c r="AG21" s="7">
         <v>2.5017000000000001E-2</v>
       </c>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="6"/>
       <c r="AH21" s="6"/>
       <c r="AI21" s="6"/>
-      <c r="AJ21" s="6">
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6">
         <v>3</v>
       </c>
-      <c r="AK21" s="6">
+      <c r="AM21" s="6">
         <v>19</v>
       </c>
-      <c r="AL21" s="9"/>
-      <c r="AM21" s="6">
+      <c r="AN21" s="9"/>
+      <c r="AO21" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -2981,62 +3087,64 @@
         <v>53</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="6">
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6">
         <v>1</v>
       </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6" t="s">
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="N22" s="6" t="s">
+      <c r="P22" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6" t="s">
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="R22" s="6" t="s">
+      <c r="T22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
       <c r="U22" s="6"/>
-      <c r="V22" s="6" t="s">
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6" t="s">
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
-      <c r="AD22" s="6" t="s">
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE22" s="7">
+      <c r="AG22" s="7">
         <v>1.2992E-2</v>
       </c>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="6">
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6">
         <v>3</v>
       </c>
-      <c r="AK22" s="6">
+      <c r="AM22" s="6">
         <v>20</v>
       </c>
-      <c r="AL22" s="9"/>
-      <c r="AM22" s="6">
+      <c r="AN22" s="9"/>
+      <c r="AO22" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -3061,8 +3169,12 @@
       <c r="H23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="I23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>238</v>
+      </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
@@ -3082,28 +3194,30 @@
       <c r="AA23" s="6"/>
       <c r="AB23" s="6"/>
       <c r="AC23" s="6"/>
-      <c r="AD23" s="6" t="s">
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="6"/>
+      <c r="AG23" s="7"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="6">
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6">
         <v>2</v>
       </c>
-      <c r="AK23" s="6">
+      <c r="AM23" s="6">
         <v>21</v>
       </c>
-      <c r="AL23" s="8" t="s">
+      <c r="AN23" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="AM23" s="6">
+      <c r="AO23" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -3129,62 +3243,64 @@
         <v>53</v>
       </c>
       <c r="I24" s="6"/>
-      <c r="J24" s="6">
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6">
         <v>1</v>
       </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6" t="s">
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="P24" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6" t="s">
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="R24" s="6" t="s">
+      <c r="T24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
       <c r="U24" s="6"/>
-      <c r="V24" s="6" t="s">
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6" t="s">
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
-      <c r="AD24" s="6" t="s">
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE24" s="7">
+      <c r="AG24" s="7">
         <v>2.5017000000000001E-2</v>
       </c>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="6"/>
       <c r="AH24" s="6"/>
       <c r="AI24" s="6"/>
-      <c r="AJ24" s="6">
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="6">
         <v>3</v>
       </c>
-      <c r="AK24" s="6">
+      <c r="AM24" s="6">
         <v>22</v>
       </c>
-      <c r="AL24" s="9"/>
-      <c r="AM24" s="6">
+      <c r="AN24" s="9"/>
+      <c r="AO24" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -3210,62 +3326,64 @@
         <v>53</v>
       </c>
       <c r="I25" s="6"/>
-      <c r="J25" s="6">
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6">
         <v>1</v>
       </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6" t="s">
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="N25" s="6">
+      <c r="P25" s="6">
         <v>4607042430879</v>
       </c>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6" t="s">
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="R25" s="6" t="s">
+      <c r="T25" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
       <c r="U25" s="6"/>
-      <c r="V25" s="6" t="s">
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6" t="s">
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
-      <c r="AD25" s="6" t="s">
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE25" s="7">
+      <c r="AG25" s="7">
         <v>1.2992999999999999E-2</v>
       </c>
-      <c r="AF25" s="6"/>
-      <c r="AG25" s="6"/>
       <c r="AH25" s="6"/>
       <c r="AI25" s="6"/>
-      <c r="AJ25" s="6">
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="6">
         <v>3</v>
       </c>
-      <c r="AK25" s="6">
+      <c r="AM25" s="6">
         <v>23</v>
       </c>
-      <c r="AL25" s="9"/>
-      <c r="AM25" s="6">
+      <c r="AN25" s="9"/>
+      <c r="AO25" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -3291,62 +3409,64 @@
         <v>53</v>
       </c>
       <c r="I26" s="6"/>
-      <c r="J26" s="6">
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6">
         <v>1</v>
       </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6" t="s">
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="N26" s="6" t="s">
+      <c r="P26" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6" t="s">
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="R26" s="6" t="s">
+      <c r="T26" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
       <c r="U26" s="6"/>
-      <c r="V26" s="6" t="s">
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6" t="s">
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
       <c r="AB26" s="6"/>
       <c r="AC26" s="6"/>
-      <c r="AD26" s="6" t="s">
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE26" s="7">
+      <c r="AG26" s="7">
         <v>1.2992999999999999E-2</v>
       </c>
-      <c r="AF26" s="6"/>
-      <c r="AG26" s="6"/>
       <c r="AH26" s="6"/>
       <c r="AI26" s="6"/>
-      <c r="AJ26" s="6">
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="6">
         <v>3</v>
       </c>
-      <c r="AK26" s="6">
+      <c r="AM26" s="6">
         <v>24</v>
       </c>
-      <c r="AL26" s="9"/>
-      <c r="AM26" s="6">
+      <c r="AN26" s="9"/>
+      <c r="AO26" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -3371,8 +3491,12 @@
       <c r="H27" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
+      <c r="I27" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>239</v>
+      </c>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
@@ -3392,28 +3516,30 @@
       <c r="AA27" s="6"/>
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
-      <c r="AD27" s="6" t="s">
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="6"/>
-      <c r="AG27" s="6"/>
+      <c r="AG27" s="7"/>
       <c r="AH27" s="6"/>
       <c r="AI27" s="6"/>
-      <c r="AJ27" s="6">
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="6">
         <v>2</v>
       </c>
-      <c r="AK27" s="6">
+      <c r="AM27" s="6">
         <v>25</v>
       </c>
-      <c r="AL27" s="8" t="s">
+      <c r="AN27" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="AM27" s="6">
+      <c r="AO27" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -3439,62 +3565,64 @@
         <v>53</v>
       </c>
       <c r="I28" s="6"/>
-      <c r="J28" s="6">
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6">
         <v>1</v>
       </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6" t="s">
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="N28" s="6" t="s">
+      <c r="P28" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6" t="s">
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="R28" s="6" t="s">
+      <c r="T28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
       <c r="U28" s="6"/>
-      <c r="V28" s="6" t="s">
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6" t="s">
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
-      <c r="AD28" s="6" t="s">
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE28" s="7">
+      <c r="AG28" s="7">
         <v>2.5017000000000001E-2</v>
       </c>
-      <c r="AF28" s="6"/>
-      <c r="AG28" s="6"/>
       <c r="AH28" s="6"/>
       <c r="AI28" s="6"/>
-      <c r="AJ28" s="6">
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="6">
         <v>3</v>
       </c>
-      <c r="AK28" s="6">
+      <c r="AM28" s="6">
         <v>626</v>
       </c>
-      <c r="AL28" s="9"/>
-      <c r="AM28" s="6">
+      <c r="AN28" s="9"/>
+      <c r="AO28" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -3520,62 +3648,64 @@
         <v>53</v>
       </c>
       <c r="I29" s="6"/>
-      <c r="J29" s="6">
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6">
         <v>1</v>
       </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6" t="s">
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="N29" s="6">
+      <c r="P29" s="6">
         <v>4607174577787</v>
       </c>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6" t="s">
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="R29" s="6" t="s">
+      <c r="T29" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
       <c r="U29" s="6"/>
-      <c r="V29" s="6" t="s">
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6" t="s">
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
-      <c r="AD29" s="6" t="s">
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE29" s="7">
+      <c r="AG29" s="7">
         <v>1.2992999999999999E-2</v>
       </c>
-      <c r="AF29" s="6"/>
-      <c r="AG29" s="6"/>
       <c r="AH29" s="6"/>
       <c r="AI29" s="6"/>
-      <c r="AJ29" s="6">
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="6">
         <v>3</v>
       </c>
-      <c r="AK29" s="6">
+      <c r="AM29" s="6">
         <v>627</v>
       </c>
-      <c r="AL29" s="9"/>
-      <c r="AM29" s="6">
+      <c r="AN29" s="9"/>
+      <c r="AO29" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -3601,62 +3731,64 @@
         <v>53</v>
       </c>
       <c r="I30" s="6"/>
-      <c r="J30" s="6">
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6">
         <v>1</v>
       </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6" t="s">
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="N30" s="6">
+      <c r="P30" s="6">
         <v>4650075420980</v>
       </c>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6" t="s">
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="R30" s="6" t="s">
+      <c r="T30" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
       <c r="U30" s="6"/>
-      <c r="V30" s="6" t="s">
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6" t="s">
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
-      <c r="AD30" s="6" t="s">
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE30" s="7">
+      <c r="AG30" s="7">
         <v>6.9969999999999997E-3</v>
       </c>
-      <c r="AF30" s="6"/>
-      <c r="AG30" s="6"/>
       <c r="AH30" s="6"/>
       <c r="AI30" s="6"/>
-      <c r="AJ30" s="6">
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="6"/>
+      <c r="AL30" s="6">
         <v>3</v>
       </c>
-      <c r="AK30" s="6">
+      <c r="AM30" s="6">
         <v>628</v>
       </c>
-      <c r="AL30" s="9"/>
-      <c r="AM30" s="6">
+      <c r="AN30" s="9"/>
+      <c r="AO30" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -3682,62 +3814,64 @@
         <v>53</v>
       </c>
       <c r="I31" s="6"/>
-      <c r="J31" s="6">
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6">
         <v>1</v>
       </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6" t="s">
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="N31" s="6" t="s">
+      <c r="P31" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6" t="s">
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="R31" s="6" t="s">
+      <c r="T31" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
       <c r="U31" s="6"/>
-      <c r="V31" s="6" t="s">
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6" t="s">
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
       <c r="AB31" s="6"/>
       <c r="AC31" s="6"/>
-      <c r="AD31" s="6" t="s">
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE31" s="7">
+      <c r="AG31" s="7">
         <v>6.9969999999999997E-3</v>
       </c>
-      <c r="AF31" s="6"/>
-      <c r="AG31" s="6"/>
       <c r="AH31" s="6"/>
       <c r="AI31" s="6"/>
-      <c r="AJ31" s="6">
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="6">
         <v>3</v>
       </c>
-      <c r="AK31" s="6">
+      <c r="AM31" s="6">
         <v>629</v>
       </c>
-      <c r="AL31" s="9"/>
-      <c r="AM31" s="6">
+      <c r="AN31" s="9"/>
+      <c r="AO31" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -3782,23 +3916,25 @@
       <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
-      <c r="AE32" s="7"/>
+      <c r="AE32" s="6"/>
       <c r="AF32" s="6"/>
-      <c r="AG32" s="6"/>
+      <c r="AG32" s="7"/>
       <c r="AH32" s="6"/>
       <c r="AI32" s="6"/>
-      <c r="AJ32" s="6">
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="6">
         <v>1</v>
       </c>
-      <c r="AK32" s="6">
+      <c r="AM32" s="6">
         <v>310</v>
       </c>
-      <c r="AL32" s="8" t="s">
+      <c r="AN32" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="AM32" s="6"/>
+      <c r="AO32" s="6"/>
     </row>
-    <row r="33" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -3843,25 +3979,27 @@
       <c r="AB33" s="6"/>
       <c r="AC33" s="6"/>
       <c r="AD33" s="6"/>
-      <c r="AE33" s="7"/>
+      <c r="AE33" s="6"/>
       <c r="AF33" s="6"/>
-      <c r="AG33" s="6"/>
+      <c r="AG33" s="7"/>
       <c r="AH33" s="6"/>
       <c r="AI33" s="6"/>
-      <c r="AJ33" s="6">
+      <c r="AJ33" s="6"/>
+      <c r="AK33" s="6"/>
+      <c r="AL33" s="6">
         <v>1</v>
       </c>
-      <c r="AK33" s="6">
+      <c r="AM33" s="6">
         <v>311</v>
       </c>
-      <c r="AL33" s="9">
+      <c r="AN33" s="9">
         <v>26</v>
       </c>
-      <c r="AM33" s="6">
+      <c r="AO33" s="6">
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -3894,11 +4032,11 @@
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
-      <c r="Q34" s="6" t="s">
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
@@ -3909,32 +4047,34 @@
       <c r="AA34" s="6"/>
       <c r="AB34" s="6"/>
       <c r="AC34" s="6"/>
-      <c r="AD34" s="6" t="s">
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="AE34" s="7">
+      <c r="AG34" s="7">
         <v>0.08</v>
       </c>
-      <c r="AF34" s="6"/>
-      <c r="AG34" s="6"/>
-      <c r="AH34" s="6" t="s">
+      <c r="AH34" s="6"/>
+      <c r="AI34" s="6"/>
+      <c r="AJ34" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="AI34" s="6"/>
-      <c r="AJ34" s="6">
+      <c r="AK34" s="6"/>
+      <c r="AL34" s="6">
         <v>2</v>
       </c>
-      <c r="AK34" s="6">
+      <c r="AM34" s="6">
         <v>26</v>
       </c>
-      <c r="AL34" s="8" t="s">
+      <c r="AN34" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="AM34" s="6">
+      <c r="AO34" s="6">
         <v>311</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -3960,58 +4100,60 @@
         <v>143</v>
       </c>
       <c r="I35" s="6"/>
-      <c r="J35" s="6">
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6">
         <v>1</v>
       </c>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6" t="s">
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="N35" s="6" t="s">
+      <c r="P35" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
-      <c r="R35" s="6" t="s">
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
-      <c r="W35" s="6" t="s">
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
       <c r="AA35" s="6"/>
       <c r="AB35" s="6"/>
       <c r="AC35" s="6"/>
-      <c r="AD35" s="6" t="s">
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE35" s="7"/>
-      <c r="AF35" s="6"/>
-      <c r="AG35" s="6"/>
-      <c r="AH35" s="6" t="s">
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="AI35" s="6"/>
-      <c r="AJ35" s="6">
+      <c r="AK35" s="6"/>
+      <c r="AL35" s="6">
         <v>3</v>
       </c>
-      <c r="AK35" s="6">
+      <c r="AM35" s="6">
         <v>27</v>
       </c>
-      <c r="AL35" s="9"/>
-      <c r="AM35" s="6">
+      <c r="AN35" s="9"/>
+      <c r="AO35" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -4037,56 +4179,58 @@
         <v>151</v>
       </c>
       <c r="I36" s="6"/>
-      <c r="J36" s="6">
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6">
         <v>0.01</v>
       </c>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6" t="s">
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="N36" s="6" t="s">
+      <c r="P36" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
-      <c r="R36" s="6" t="s">
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
-      <c r="W36" s="6" t="s">
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
       <c r="AA36" s="6"/>
       <c r="AB36" s="6"/>
       <c r="AC36" s="6"/>
-      <c r="AD36" s="6" t="s">
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE36" s="7"/>
-      <c r="AF36" s="6"/>
-      <c r="AG36" s="6"/>
+      <c r="AG36" s="7"/>
       <c r="AH36" s="6"/>
       <c r="AI36" s="6"/>
-      <c r="AJ36" s="6">
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="6"/>
+      <c r="AL36" s="6">
         <v>3</v>
       </c>
-      <c r="AK36" s="6">
+      <c r="AM36" s="6">
         <v>28</v>
       </c>
-      <c r="AL36" s="9"/>
-      <c r="AM36" s="6">
+      <c r="AN36" s="9"/>
+      <c r="AO36" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -4131,25 +4275,27 @@
       <c r="AB37" s="6"/>
       <c r="AC37" s="6"/>
       <c r="AD37" s="6"/>
-      <c r="AE37" s="7"/>
+      <c r="AE37" s="6"/>
       <c r="AF37" s="6"/>
-      <c r="AG37" s="6"/>
+      <c r="AG37" s="7"/>
       <c r="AH37" s="6"/>
       <c r="AI37" s="6"/>
-      <c r="AJ37" s="6">
+      <c r="AJ37" s="6"/>
+      <c r="AK37" s="6"/>
+      <c r="AL37" s="6">
         <v>1</v>
       </c>
-      <c r="AK37" s="6">
+      <c r="AM37" s="6">
         <v>312</v>
       </c>
-      <c r="AL37" s="8" t="s">
+      <c r="AN37" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="AM37" s="6">
+      <c r="AO37" s="6">
         <v>310</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -4175,62 +4321,64 @@
         <v>159</v>
       </c>
       <c r="I38" s="6"/>
-      <c r="J38" s="6">
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6">
         <v>1</v>
       </c>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
       <c r="M38" s="6"/>
-      <c r="N38" s="6" t="s">
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
-      <c r="R38" s="6" t="s">
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
-      <c r="W38" s="6" t="s">
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X38" s="6" t="s">
+      <c r="Z38" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
       <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
       <c r="AC38" s="6"/>
-      <c r="AD38" s="6" t="s">
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6"/>
+      <c r="AF38" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE38" s="7">
+      <c r="AG38" s="7">
         <v>0.04</v>
       </c>
-      <c r="AF38" s="6"/>
-      <c r="AG38" s="6"/>
-      <c r="AH38" s="6" t="s">
+      <c r="AH38" s="6"/>
+      <c r="AI38" s="6"/>
+      <c r="AJ38" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="AI38" s="6" t="s">
+      <c r="AK38" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="AJ38" s="6">
+      <c r="AL38" s="6">
         <v>2</v>
       </c>
-      <c r="AK38" s="6">
+      <c r="AM38" s="6">
         <v>29</v>
       </c>
-      <c r="AL38" s="9"/>
-      <c r="AM38" s="6">
+      <c r="AN38" s="9"/>
+      <c r="AO38" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -4256,62 +4404,64 @@
         <v>165</v>
       </c>
       <c r="I39" s="6"/>
-      <c r="J39" s="6">
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6">
         <v>1</v>
       </c>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6" t="s">
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="N39" s="6" t="s">
+      <c r="P39" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
-      <c r="R39" s="6" t="s">
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
-      <c r="W39" s="6" t="s">
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
       <c r="AC39" s="6"/>
-      <c r="AD39" s="6" t="s">
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="AE39" s="7">
+      <c r="AG39" s="7">
         <v>0.04</v>
       </c>
-      <c r="AF39" s="6"/>
-      <c r="AG39" s="6"/>
-      <c r="AH39" s="6" t="s">
+      <c r="AH39" s="6"/>
+      <c r="AI39" s="6"/>
+      <c r="AJ39" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="AI39" s="6" t="s">
+      <c r="AK39" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="AJ39" s="6">
+      <c r="AL39" s="6">
         <v>2</v>
       </c>
-      <c r="AK39" s="6">
+      <c r="AM39" s="6">
         <v>30</v>
       </c>
-      <c r="AL39" s="9"/>
-      <c r="AM39" s="6">
+      <c r="AN39" s="9"/>
+      <c r="AO39" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -4338,63 +4488,65 @@
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
-      <c r="K40" s="6">
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6">
         <v>1</v>
       </c>
-      <c r="L40" s="6">
+      <c r="N40" s="6">
         <v>15</v>
       </c>
-      <c r="M40" s="6" t="s">
+      <c r="O40" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="N40" s="6" t="s">
+      <c r="P40" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
-      <c r="R40" s="6" t="s">
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
-      <c r="W40" s="6" t="s">
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
       <c r="AC40" s="6"/>
-      <c r="AD40" s="6" t="s">
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="6"/>
+      <c r="AF40" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE40" s="7">
+      <c r="AG40" s="7">
         <v>0.04</v>
       </c>
-      <c r="AF40" s="6"/>
-      <c r="AG40" s="6"/>
-      <c r="AH40" s="6" t="s">
+      <c r="AH40" s="6"/>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="AI40" s="6" t="s">
+      <c r="AK40" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="AJ40" s="6">
+      <c r="AL40" s="6">
         <v>2</v>
       </c>
-      <c r="AK40" s="6">
+      <c r="AM40" s="6">
         <v>31</v>
       </c>
-      <c r="AL40" s="9"/>
-      <c r="AM40" s="6">
+      <c r="AN40" s="9"/>
+      <c r="AO40" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -4439,23 +4591,25 @@
       <c r="AB41" s="6"/>
       <c r="AC41" s="6"/>
       <c r="AD41" s="6"/>
-      <c r="AE41" s="7"/>
+      <c r="AE41" s="6"/>
       <c r="AF41" s="6"/>
-      <c r="AG41" s="6"/>
+      <c r="AG41" s="7"/>
       <c r="AH41" s="6"/>
       <c r="AI41" s="6"/>
-      <c r="AJ41" s="6">
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="6"/>
+      <c r="AL41" s="6">
         <v>1</v>
       </c>
-      <c r="AK41" s="6">
+      <c r="AM41" s="6">
         <v>400</v>
       </c>
-      <c r="AL41" s="8" t="s">
+      <c r="AN41" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="AM41" s="6"/>
+      <c r="AO41" s="6"/>
     </row>
-    <row r="42" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -4481,66 +4635,68 @@
         <v>53</v>
       </c>
       <c r="I42" s="6"/>
-      <c r="J42" s="6">
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6">
         <v>1</v>
       </c>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6" t="s">
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="N42" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="O42" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="P42" s="6" t="s">
         <v>177</v>
       </c>
       <c r="Q42" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="S42" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="R42" s="6" t="s">
+      <c r="T42" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
-      <c r="W42" s="6" t="s">
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="X42" s="6" t="s">
+      <c r="Z42" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
       <c r="AA42" s="6"/>
       <c r="AB42" s="6"/>
       <c r="AC42" s="6"/>
-      <c r="AD42" s="6" t="s">
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE42" s="7">
+      <c r="AG42" s="7">
         <v>0.12</v>
       </c>
-      <c r="AF42" s="6"/>
-      <c r="AG42" s="6"/>
       <c r="AH42" s="6"/>
       <c r="AI42" s="6"/>
-      <c r="AJ42" s="6">
+      <c r="AJ42" s="6"/>
+      <c r="AK42" s="6"/>
+      <c r="AL42" s="6">
         <v>2</v>
       </c>
-      <c r="AK42" s="6">
+      <c r="AM42" s="6">
         <v>32</v>
       </c>
-      <c r="AL42" s="9"/>
-      <c r="AM42" s="6">
+      <c r="AN42" s="9"/>
+      <c r="AO42" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -4566,58 +4722,60 @@
         <v>184</v>
       </c>
       <c r="I43" s="6"/>
-      <c r="J43" s="6">
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6">
         <v>2</v>
       </c>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
-      <c r="Q43" s="6" t="s">
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
-      <c r="W43" s="6" t="s">
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="X43" s="6" t="s">
+      <c r="Z43" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
       <c r="AA43" s="6"/>
       <c r="AB43" s="6"/>
       <c r="AC43" s="6"/>
-      <c r="AD43" s="6" t="s">
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6"/>
+      <c r="AF43" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE43" s="7">
+      <c r="AG43" s="7">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AF43" s="6"/>
-      <c r="AG43" s="6"/>
       <c r="AH43" s="6"/>
       <c r="AI43" s="6"/>
-      <c r="AJ43" s="6">
+      <c r="AJ43" s="6"/>
+      <c r="AK43" s="6"/>
+      <c r="AL43" s="6">
         <v>2</v>
       </c>
-      <c r="AK43" s="6">
+      <c r="AM43" s="6">
         <v>34</v>
       </c>
-      <c r="AL43" s="8" t="s">
+      <c r="AN43" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="AM43" s="6">
+      <c r="AO43" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -4643,62 +4801,64 @@
         <v>53</v>
       </c>
       <c r="I44" s="6"/>
-      <c r="J44" s="6">
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6">
         <v>1</v>
       </c>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6" t="s">
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="N44" s="6" t="s">
+      <c r="P44" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="O44" s="6" t="s">
+      <c r="Q44" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6" t="s">
+      <c r="R44" s="6"/>
+      <c r="S44" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="R44" s="6" t="s">
+      <c r="T44" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
-      <c r="W44" s="6" t="s">
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="X44" s="6" t="s">
+      <c r="Z44" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
       <c r="AA44" s="6"/>
       <c r="AB44" s="6"/>
       <c r="AC44" s="6"/>
-      <c r="AD44" s="6" t="s">
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="6"/>
+      <c r="AF44" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE44" s="7"/>
-      <c r="AF44" s="6"/>
-      <c r="AG44" s="6"/>
+      <c r="AG44" s="7"/>
       <c r="AH44" s="6"/>
       <c r="AI44" s="6"/>
-      <c r="AJ44" s="6">
+      <c r="AJ44" s="6"/>
+      <c r="AK44" s="6"/>
+      <c r="AL44" s="6">
         <v>3</v>
       </c>
-      <c r="AK44" s="6">
+      <c r="AM44" s="6">
         <v>35</v>
       </c>
-      <c r="AL44" s="9"/>
-      <c r="AM44" s="6">
+      <c r="AN44" s="9"/>
+      <c r="AO44" s="6">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -4724,62 +4884,64 @@
         <v>53</v>
       </c>
       <c r="I45" s="6"/>
-      <c r="J45" s="6">
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6">
         <v>1</v>
       </c>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6" t="s">
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="N45" s="6" t="s">
+      <c r="P45" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6" t="s">
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="R45" s="6" t="s">
+      <c r="T45" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
-      <c r="W45" s="6" t="s">
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="X45" s="6" t="s">
+      <c r="Z45" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
       <c r="AA45" s="6"/>
       <c r="AB45" s="6"/>
       <c r="AC45" s="6"/>
-      <c r="AD45" s="6" t="s">
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="6"/>
+      <c r="AF45" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE45" s="7"/>
-      <c r="AF45" s="6"/>
-      <c r="AG45" s="6"/>
-      <c r="AH45" s="6" t="s">
+      <c r="AG45" s="7"/>
+      <c r="AH45" s="6"/>
+      <c r="AI45" s="6"/>
+      <c r="AJ45" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="AI45" s="6"/>
-      <c r="AJ45" s="6">
+      <c r="AK45" s="6"/>
+      <c r="AL45" s="6">
         <v>3</v>
       </c>
-      <c r="AK45" s="6">
+      <c r="AM45" s="6">
         <v>36</v>
       </c>
-      <c r="AL45" s="9"/>
-      <c r="AM45" s="6">
+      <c r="AN45" s="9"/>
+      <c r="AO45" s="6">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -4804,22 +4966,22 @@
       <c r="H46" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
-      <c r="R46" s="6" t="s">
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
@@ -4830,21 +4992,23 @@
       <c r="AB46" s="6"/>
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
-      <c r="AE46" s="7"/>
+      <c r="AE46" s="6"/>
       <c r="AF46" s="6"/>
-      <c r="AG46" s="6"/>
+      <c r="AG46" s="7"/>
       <c r="AH46" s="6"/>
       <c r="AI46" s="6"/>
       <c r="AJ46" s="6"/>
-      <c r="AK46" s="6">
+      <c r="AK46" s="6"/>
+      <c r="AL46" s="6"/>
+      <c r="AM46" s="6">
         <v>37</v>
       </c>
-      <c r="AL46" s="8" t="s">
+      <c r="AN46" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="AM46" s="6"/>
+      <c r="AO46" s="6"/>
     </row>
-    <row r="47" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -4869,24 +5033,24 @@
       <c r="H47" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
-      <c r="N47" s="10" t="s">
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
-      <c r="R47" s="6" t="s">
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
       <c r="W47" s="6"/>
@@ -4897,21 +5061,23 @@
       <c r="AB47" s="6"/>
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
-      <c r="AE47" s="7"/>
+      <c r="AE47" s="6"/>
       <c r="AF47" s="6"/>
-      <c r="AG47" s="6"/>
+      <c r="AG47" s="7"/>
       <c r="AH47" s="6"/>
       <c r="AI47" s="6"/>
       <c r="AJ47" s="6"/>
-      <c r="AK47" s="6">
+      <c r="AK47" s="6"/>
+      <c r="AL47" s="6"/>
+      <c r="AM47" s="6">
         <v>38</v>
       </c>
-      <c r="AL47" s="9">
+      <c r="AN47" s="9">
         <v>32</v>
       </c>
-      <c r="AM47" s="6"/>
+      <c r="AO47" s="6"/>
     </row>
-    <row r="48" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -4936,24 +5102,24 @@
       <c r="H48" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="I48" s="6" t="s">
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
-      <c r="N48" s="10" t="s">
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
-      <c r="R48" s="6" t="s">
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
       <c r="W48" s="6"/>
@@ -4964,21 +5130,23 @@
       <c r="AB48" s="6"/>
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
-      <c r="AE48" s="7"/>
+      <c r="AE48" s="6"/>
       <c r="AF48" s="6"/>
-      <c r="AG48" s="6"/>
+      <c r="AG48" s="7"/>
       <c r="AH48" s="6"/>
       <c r="AI48" s="6"/>
       <c r="AJ48" s="6"/>
-      <c r="AK48" s="6">
+      <c r="AK48" s="6"/>
+      <c r="AL48" s="6"/>
+      <c r="AM48" s="6">
         <v>39</v>
       </c>
-      <c r="AL48" s="9">
+      <c r="AN48" s="9">
         <v>33</v>
       </c>
-      <c r="AM48" s="6"/>
+      <c r="AO48" s="6"/>
     </row>
-    <row r="49" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -5003,26 +5171,26 @@
       <c r="H49" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="I49" s="6" t="s">
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
       <c r="L49" s="6"/>
-      <c r="M49" s="6" t="s">
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="N49" s="10" t="s">
+      <c r="P49" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
-      <c r="R49" s="6" t="s">
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
@@ -5033,21 +5201,23 @@
       <c r="AB49" s="6"/>
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
-      <c r="AE49" s="7"/>
+      <c r="AE49" s="6"/>
       <c r="AF49" s="6"/>
-      <c r="AG49" s="6"/>
+      <c r="AG49" s="7"/>
       <c r="AH49" s="6"/>
       <c r="AI49" s="6"/>
       <c r="AJ49" s="6"/>
-      <c r="AK49" s="6">
+      <c r="AK49" s="6"/>
+      <c r="AL49" s="6"/>
+      <c r="AM49" s="6">
         <v>40</v>
       </c>
-      <c r="AL49" s="9">
+      <c r="AN49" s="9">
         <v>34</v>
       </c>
-      <c r="AM49" s="6"/>
+      <c r="AO49" s="6"/>
     </row>
-    <row r="50" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -5072,26 +5242,26 @@
       <c r="H50" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="I50" s="6" t="s">
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
       <c r="L50" s="6"/>
-      <c r="M50" s="6" t="s">
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="N50" s="10" t="s">
+      <c r="P50" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
-      <c r="R50" s="6" t="s">
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
       <c r="W50" s="6"/>
@@ -5102,21 +5272,23 @@
       <c r="AB50" s="6"/>
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
-      <c r="AE50" s="7"/>
+      <c r="AE50" s="6"/>
       <c r="AF50" s="6"/>
-      <c r="AG50" s="6"/>
+      <c r="AG50" s="7"/>
       <c r="AH50" s="6"/>
       <c r="AI50" s="6"/>
       <c r="AJ50" s="6"/>
-      <c r="AK50" s="6">
+      <c r="AK50" s="6"/>
+      <c r="AL50" s="6"/>
+      <c r="AM50" s="6">
         <v>42</v>
       </c>
-      <c r="AL50" s="8" t="s">
+      <c r="AN50" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="AM50" s="6"/>
+      <c r="AO50" s="6"/>
     </row>
-    <row r="51" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -5141,49 +5313,51 @@
       <c r="H51" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="I51" s="6" t="s">
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
-      <c r="N51" s="6" t="s">
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
-      <c r="R51" s="6" t="s">
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
-      <c r="W51" s="6" t="s">
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
       <c r="AA51" s="6"/>
       <c r="AB51" s="6"/>
       <c r="AC51" s="6"/>
       <c r="AD51" s="6"/>
-      <c r="AE51" s="7"/>
+      <c r="AE51" s="6"/>
       <c r="AF51" s="6"/>
-      <c r="AG51" s="6"/>
+      <c r="AG51" s="7"/>
       <c r="AH51" s="6"/>
       <c r="AI51" s="6"/>
       <c r="AJ51" s="6"/>
-      <c r="AK51" s="6">
+      <c r="AK51" s="6"/>
+      <c r="AL51" s="6"/>
+      <c r="AM51" s="6">
         <v>43</v>
       </c>
-      <c r="AL51" s="9"/>
-      <c r="AM51" s="6"/>
+      <c r="AN51" s="9"/>
+      <c r="AO51" s="6"/>
     </row>
-    <row r="52" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -5206,22 +5380,22 @@
       <c r="H52" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="I52" s="6" t="s">
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
-      <c r="R52" s="6" t="s">
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
       <c r="W52" s="6"/>
@@ -5232,20 +5406,22 @@
       <c r="AB52" s="6"/>
       <c r="AC52" s="6"/>
       <c r="AD52" s="6"/>
-      <c r="AE52" s="7"/>
+      <c r="AE52" s="6"/>
       <c r="AF52" s="6"/>
-      <c r="AG52" s="6"/>
+      <c r="AG52" s="7"/>
       <c r="AH52" s="6"/>
       <c r="AI52" s="6"/>
       <c r="AJ52" s="6"/>
-      <c r="AK52" s="6">
+      <c r="AK52" s="6"/>
+      <c r="AL52" s="6"/>
+      <c r="AM52" s="6">
         <v>401</v>
       </c>
-      <c r="AL52" s="9"/>
-      <c r="AM52" s="6"/>
+      <c r="AN52" s="9"/>
+      <c r="AO52" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM52" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AO52" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC FastFood.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC FastFood.xlsx
@@ -5,22 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\Downloads\CCRU new KPI\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2019\POS_2019-12-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB9F7D51-4454-47B3-91B7-F3BCBB883EEA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF196EE0-F59F-4BCC-8CEE-30C7C015C823}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FF" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FF!$A$1:$AO$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">FF!$A$1:$AO$52</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="239">
   <si>
     <t>Sorting</t>
   </si>
@@ -53,6 +59,12 @@
   </si>
   <si>
     <t>Formula</t>
+  </si>
+  <si>
+    <t>Category KPI Type</t>
+  </si>
+  <si>
+    <t>Category KPI Value</t>
   </si>
   <si>
     <t>Result Format</t>
@@ -181,6 +193,9 @@
   </si>
   <si>
     <t>Weighted Average</t>
+  </si>
+  <si>
+    <t>SSD</t>
   </si>
   <si>
     <t xml:space="preserve">Weighted Average </t>
@@ -310,6 +325,9 @@
     <t>Представленность Воды</t>
   </si>
   <si>
+    <t>Water</t>
+  </si>
+  <si>
     <t>16
 17</t>
   </si>
@@ -332,6 +350,9 @@
     <t>Представленность Энергетиков</t>
   </si>
   <si>
+    <t>Energy</t>
+  </si>
+  <si>
     <t>19
 20</t>
   </si>
@@ -358,6 +379,9 @@
   </si>
   <si>
     <t>Представленность Чая</t>
+  </si>
+  <si>
+    <t>ice tea</t>
   </si>
   <si>
     <t xml:space="preserve">22
@@ -397,6 +421,9 @@
   </si>
   <si>
     <t>Представленность Сока</t>
+  </si>
+  <si>
+    <t>Juices</t>
   </si>
   <si>
     <t>626
@@ -603,9 +630,6 @@
   </si>
   <si>
     <t>BRAND</t>
-  </si>
-  <si>
-    <t>Activation</t>
   </si>
   <si>
     <t>OCCASIONS</t>
@@ -768,34 +792,13 @@
     <t>Integer</t>
   </si>
   <si>
-    <t>Panoramic Photo, SS_Panoramic Photo</t>
-  </si>
-  <si>
-    <t>Panoramic photo of Cooler, SS_Panoramic photo of Cooler</t>
-  </si>
-  <si>
-    <t>Menu Board, Cash Zone, SS_Cash Zone - Canteen, QSR, SS_Menu Board - Canteen, QSR</t>
-  </si>
-  <si>
-    <t>Category KPI Type</t>
-  </si>
-  <si>
-    <t>Category KPI Value</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>ice tea</t>
-  </si>
-  <si>
-    <t>Juices</t>
+    <t>Panoramic Photo; SS_Panoramic Photo</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler; SS_Panoramic photo of Cooler</t>
+  </si>
+  <si>
+    <t>Menu Board; Cash Zone; SS_Cash Zone - Canteen, QSR; SS_Menu Board - Canteen, QSR</t>
   </si>
 </sst>
 </file>
@@ -894,41 +897,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -937,74 +939,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF92D050"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1313,166 +1247,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMM52"/>
+  <dimension ref="A1:AMK52"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="X1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="X1" sqref="X1"/>
+      <selection pane="bottomLeft" activeCell="Z40" sqref="Z39:Z40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1027" width="39.7109375" style="4"/>
-    <col min="1028" max="16384" width="39.7109375" style="5"/>
+    <col min="1" max="1025" width="42.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -1510,40 +1444,40 @@
         <v>300</v>
       </c>
       <c r="AN2" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AO2" s="6"/>
     </row>
-    <row r="3" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>235</v>
+        <v>50</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -1567,7 +1501,7 @@
       <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
       <c r="AF3" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG3" s="7"/>
       <c r="AH3" s="6"/>
@@ -1581,36 +1515,36 @@
         <v>1</v>
       </c>
       <c r="AN3" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AO3" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -1621,7 +1555,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P4" s="6">
         <v>5449000000996</v>
@@ -1629,28 +1563,28 @@
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
       <c r="X4" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
       <c r="AF4" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG4" s="7">
         <v>2.7028E-2</v>
@@ -1665,35 +1599,35 @@
       <c r="AM4" s="6">
         <v>2</v>
       </c>
-      <c r="AN4" s="9"/>
+      <c r="AN4" s="10"/>
       <c r="AO4" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -1704,7 +1638,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P5" s="6">
         <v>5449000131805</v>
@@ -1712,28 +1646,28 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
       <c r="X5" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
       <c r="AE5" s="6"/>
       <c r="AF5" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG5" s="7">
         <v>2.7028E-2</v>
@@ -1748,35 +1682,35 @@
       <c r="AM5" s="6">
         <v>3</v>
       </c>
-      <c r="AN5" s="9"/>
+      <c r="AN5" s="10"/>
       <c r="AO5" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -1787,7 +1721,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P6" s="6">
         <v>5449000011527</v>
@@ -1795,28 +1729,28 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
       <c r="X6" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
       <c r="AE6" s="6"/>
       <c r="AF6" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG6" s="7">
         <v>2.7005000000000001E-2</v>
@@ -1831,35 +1765,35 @@
       <c r="AM6" s="6">
         <v>4</v>
       </c>
-      <c r="AN6" s="9"/>
+      <c r="AN6" s="10"/>
       <c r="AO6" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -1870,7 +1804,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P7" s="6">
         <v>5449000014535</v>
@@ -1878,28 +1812,28 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
       <c r="X7" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
       <c r="AE7" s="6"/>
       <c r="AF7" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG7" s="7">
         <v>2.7005000000000001E-2</v>
@@ -1914,35 +1848,35 @@
       <c r="AM7" s="6">
         <v>5</v>
       </c>
-      <c r="AN7" s="9"/>
+      <c r="AN7" s="10"/>
       <c r="AO7" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -1953,7 +1887,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P8" s="6">
         <v>54491472</v>
@@ -1961,28 +1895,28 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
       <c r="AE8" s="6"/>
       <c r="AF8" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG8" s="7">
         <v>2.7005000000000001E-2</v>
@@ -1997,35 +1931,35 @@
       <c r="AM8" s="6">
         <v>6</v>
       </c>
-      <c r="AN8" s="9"/>
+      <c r="AN8" s="10"/>
       <c r="AO8" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -2036,7 +1970,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P9" s="6">
         <v>5449000131836</v>
@@ -2044,28 +1978,28 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
       <c r="AE9" s="6"/>
       <c r="AF9" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG9" s="7">
         <v>2.7005000000000001E-2</v>
@@ -2080,35 +2014,35 @@
       <c r="AM9" s="6">
         <v>7</v>
       </c>
-      <c r="AN9" s="9"/>
+      <c r="AN9" s="10"/>
       <c r="AO9" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -2119,7 +2053,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P10" s="6">
         <v>5449000098917</v>
@@ -2127,28 +2061,28 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
       <c r="AE10" s="6"/>
       <c r="AF10" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG10" s="7">
         <v>1.2489E-2</v>
@@ -2163,35 +2097,35 @@
       <c r="AM10" s="6">
         <v>8</v>
       </c>
-      <c r="AN10" s="9"/>
+      <c r="AN10" s="10"/>
       <c r="AO10" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -2202,7 +2136,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P11" s="6">
         <v>40822938</v>
@@ -2210,28 +2144,28 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
       <c r="AE11" s="6"/>
       <c r="AF11" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG11" s="7">
         <v>1.2489E-2</v>
@@ -2246,35 +2180,35 @@
       <c r="AM11" s="6">
         <v>9</v>
       </c>
-      <c r="AN11" s="9"/>
+      <c r="AN11" s="10"/>
       <c r="AO11" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -2285,7 +2219,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P12" s="6">
         <v>42099697</v>
@@ -2293,28 +2227,28 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
       <c r="AE12" s="6"/>
       <c r="AF12" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG12" s="7">
         <v>1.2489E-2</v>
@@ -2329,35 +2263,35 @@
       <c r="AM12" s="6">
         <v>10</v>
       </c>
-      <c r="AN12" s="9"/>
+      <c r="AN12" s="10"/>
       <c r="AO12" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -2368,7 +2302,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P13" s="6">
         <v>54491069</v>
@@ -2376,28 +2310,28 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
       <c r="AE13" s="6"/>
       <c r="AF13" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG13" s="7">
         <v>1.2489E-2</v>
@@ -2412,35 +2346,35 @@
       <c r="AM13" s="6">
         <v>11</v>
       </c>
-      <c r="AN13" s="9"/>
+      <c r="AN13" s="10"/>
       <c r="AO13" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -2451,36 +2385,36 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
       <c r="AE14" s="6"/>
       <c r="AF14" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG14" s="7">
         <v>6.9899999999999997E-3</v>
@@ -2495,35 +2429,35 @@
       <c r="AM14" s="6">
         <v>12</v>
       </c>
-      <c r="AN14" s="9"/>
+      <c r="AN14" s="10"/>
       <c r="AO14" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -2534,7 +2468,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P15" s="6">
         <v>5449000064110</v>
@@ -2542,28 +2476,28 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
       <c r="AA15" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
       <c r="AE15" s="6"/>
       <c r="AF15" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG15" s="7">
         <v>6.9899999999999997E-3</v>
@@ -2578,35 +2512,35 @@
       <c r="AM15" s="6">
         <v>13</v>
       </c>
-      <c r="AN15" s="9"/>
+      <c r="AN15" s="10"/>
       <c r="AO15" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -2617,7 +2551,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P16" s="6">
         <v>5449000030856</v>
@@ -2625,28 +2559,28 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
       <c r="X16" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
       <c r="AE16" s="6"/>
       <c r="AF16" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG16" s="7">
         <v>6.9899999999999997E-3</v>
@@ -2661,41 +2595,41 @@
       <c r="AM16" s="6">
         <v>14</v>
       </c>
-      <c r="AN16" s="9"/>
+      <c r="AN16" s="10"/>
       <c r="AO16" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>236</v>
+        <v>50</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -2719,7 +2653,7 @@
       <c r="AD17" s="6"/>
       <c r="AE17" s="6"/>
       <c r="AF17" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG17" s="7"/>
       <c r="AH17" s="6"/>
@@ -2733,36 +2667,36 @@
         <v>15</v>
       </c>
       <c r="AN17" s="8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AO17" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -2773,7 +2707,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P18" s="6">
         <v>40822426</v>
@@ -2781,28 +2715,28 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T18" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
       <c r="AA18" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
       <c r="AE18" s="6"/>
       <c r="AF18" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG18" s="7">
         <v>1.2991000000000001E-2</v>
@@ -2817,35 +2751,35 @@
       <c r="AM18" s="6">
         <v>16</v>
       </c>
-      <c r="AN18" s="9"/>
+      <c r="AN18" s="10"/>
       <c r="AO18" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -2856,7 +2790,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P19" s="6">
         <v>90494406</v>
@@ -2864,28 +2798,28 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T19" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
       <c r="X19" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
       <c r="AA19" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
       <c r="AD19" s="6"/>
       <c r="AE19" s="6"/>
       <c r="AF19" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG19" s="7">
         <v>1.2991000000000001E-2</v>
@@ -2900,41 +2834,41 @@
       <c r="AM19" s="6">
         <v>17</v>
       </c>
-      <c r="AN19" s="9"/>
+      <c r="AN19" s="10"/>
       <c r="AO19" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>237</v>
+        <v>50</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -2958,7 +2892,7 @@
       <c r="AD20" s="6"/>
       <c r="AE20" s="6"/>
       <c r="AF20" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG20" s="7"/>
       <c r="AH20" s="6"/>
@@ -2972,36 +2906,36 @@
         <v>18</v>
       </c>
       <c r="AN20" s="8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AO20" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -3012,36 +2946,36 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T21" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
       <c r="X21" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
       <c r="AA21" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
       <c r="AD21" s="6"/>
       <c r="AE21" s="6"/>
       <c r="AF21" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG21" s="7">
         <v>2.5017000000000001E-2</v>
@@ -3056,35 +2990,35 @@
       <c r="AM21" s="6">
         <v>19</v>
       </c>
-      <c r="AN21" s="9"/>
+      <c r="AN21" s="10"/>
       <c r="AO21" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -3095,36 +3029,36 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T22" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
       <c r="X22" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
       <c r="AA22" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
       <c r="AD22" s="6"/>
       <c r="AE22" s="6"/>
       <c r="AF22" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG22" s="7">
         <v>1.2992E-2</v>
@@ -3139,41 +3073,41 @@
       <c r="AM22" s="6">
         <v>20</v>
       </c>
-      <c r="AN22" s="9"/>
+      <c r="AN22" s="10"/>
       <c r="AO22" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>238</v>
+        <v>50</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -3197,7 +3131,7 @@
       <c r="AD23" s="6"/>
       <c r="AE23" s="6"/>
       <c r="AF23" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG23" s="7"/>
       <c r="AH23" s="6"/>
@@ -3211,36 +3145,36 @@
         <v>21</v>
       </c>
       <c r="AN23" s="8" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="AO23" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -3251,36 +3185,36 @@
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T24" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
       <c r="X24" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
       <c r="AA24" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
       <c r="AD24" s="6"/>
       <c r="AE24" s="6"/>
       <c r="AF24" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG24" s="7">
         <v>2.5017000000000001E-2</v>
@@ -3295,35 +3229,35 @@
       <c r="AM24" s="6">
         <v>22</v>
       </c>
-      <c r="AN24" s="9"/>
+      <c r="AN24" s="10"/>
       <c r="AO24" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -3334,7 +3268,7 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="P25" s="6">
         <v>4607042430879</v>
@@ -3342,28 +3276,28 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
       <c r="X25" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
       <c r="AA25" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
       <c r="AE25" s="6"/>
       <c r="AF25" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG25" s="7">
         <v>1.2992999999999999E-2</v>
@@ -3378,35 +3312,35 @@
       <c r="AM25" s="6">
         <v>23</v>
       </c>
-      <c r="AN25" s="9"/>
+      <c r="AN25" s="10"/>
       <c r="AO25" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
@@ -3417,36 +3351,36 @@
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T26" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
       <c r="X26" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
       <c r="AA26" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AB26" s="6"/>
       <c r="AC26" s="6"/>
       <c r="AD26" s="6"/>
       <c r="AE26" s="6"/>
       <c r="AF26" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG26" s="7">
         <v>1.2992999999999999E-2</v>
@@ -3461,41 +3395,41 @@
       <c r="AM26" s="6">
         <v>24</v>
       </c>
-      <c r="AN26" s="9"/>
+      <c r="AN26" s="10"/>
       <c r="AO26" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>239</v>
+        <v>50</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
@@ -3519,7 +3453,7 @@
       <c r="AD27" s="6"/>
       <c r="AE27" s="6"/>
       <c r="AF27" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG27" s="7"/>
       <c r="AH27" s="6"/>
@@ -3533,36 +3467,36 @@
         <v>25</v>
       </c>
       <c r="AN27" s="8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="AO27" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
@@ -3573,36 +3507,36 @@
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T28" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
       <c r="X28" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
       <c r="AD28" s="6"/>
       <c r="AE28" s="6"/>
       <c r="AF28" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG28" s="7">
         <v>2.5017000000000001E-2</v>
@@ -3617,35 +3551,35 @@
       <c r="AM28" s="6">
         <v>626</v>
       </c>
-      <c r="AN28" s="9"/>
+      <c r="AN28" s="10"/>
       <c r="AO28" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -3656,7 +3590,7 @@
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="P29" s="6">
         <v>4607174577787</v>
@@ -3664,28 +3598,28 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T29" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
       <c r="X29" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
       <c r="AE29" s="6"/>
       <c r="AF29" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG29" s="7">
         <v>1.2992999999999999E-2</v>
@@ -3700,35 +3634,35 @@
       <c r="AM29" s="6">
         <v>627</v>
       </c>
-      <c r="AN29" s="9"/>
+      <c r="AN29" s="10"/>
       <c r="AO29" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
@@ -3739,7 +3673,7 @@
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="P30" s="6">
         <v>4650075420980</v>
@@ -3747,28 +3681,28 @@
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
       <c r="S30" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T30" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
       <c r="X30" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
       <c r="AA30" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
       <c r="AD30" s="6"/>
       <c r="AE30" s="6"/>
       <c r="AF30" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG30" s="7">
         <v>6.9969999999999997E-3</v>
@@ -3783,35 +3717,35 @@
       <c r="AM30" s="6">
         <v>628</v>
       </c>
-      <c r="AN30" s="9"/>
+      <c r="AN30" s="10"/>
       <c r="AO30" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -3822,36 +3756,36 @@
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T31" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
       <c r="X31" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AB31" s="6"/>
       <c r="AC31" s="6"/>
       <c r="AD31" s="6"/>
       <c r="AE31" s="6"/>
       <c r="AF31" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG31" s="7">
         <v>6.9969999999999997E-3</v>
@@ -3866,33 +3800,33 @@
       <c r="AM31" s="6">
         <v>629</v>
       </c>
-      <c r="AN31" s="9"/>
+      <c r="AN31" s="10"/>
       <c r="AO31" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -3930,32 +3864,32 @@
         <v>310</v>
       </c>
       <c r="AN32" s="8" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="AO32" s="6"/>
     </row>
-    <row r="33" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
@@ -3992,37 +3926,37 @@
       <c r="AM33" s="6">
         <v>311</v>
       </c>
-      <c r="AN33" s="9">
+      <c r="AN33" s="10">
         <v>26</v>
       </c>
       <c r="AO33" s="6">
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
@@ -4035,7 +3969,7 @@
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
@@ -4050,7 +3984,7 @@
       <c r="AD34" s="6"/>
       <c r="AE34" s="6"/>
       <c r="AF34" s="6" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="AG34" s="7">
         <v>0.08</v>
@@ -4058,7 +3992,7 @@
       <c r="AH34" s="6"/>
       <c r="AI34" s="6"/>
       <c r="AJ34" s="6" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK34" s="6"/>
       <c r="AL34" s="6">
@@ -4068,36 +4002,36 @@
         <v>26</v>
       </c>
       <c r="AN34" s="8" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="AO34" s="6">
         <v>311</v>
       </c>
     </row>
-    <row r="35" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -4108,23 +4042,23 @@
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
       <c r="T35" s="6" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
       <c r="Y35" s="6" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="Z35" s="6"/>
       <c r="AA35" s="6"/>
@@ -4133,13 +4067,13 @@
       <c r="AD35" s="6"/>
       <c r="AE35" s="6"/>
       <c r="AF35" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG35" s="7"/>
       <c r="AH35" s="6"/>
       <c r="AI35" s="6"/>
       <c r="AJ35" s="6" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AK35" s="6"/>
       <c r="AL35" s="6">
@@ -4148,35 +4082,35 @@
       <c r="AM35" s="6">
         <v>27</v>
       </c>
-      <c r="AN35" s="9"/>
+      <c r="AN35" s="10"/>
       <c r="AO35" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
@@ -4187,23 +4121,23 @@
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
       <c r="O36" s="6" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
       <c r="Y36" s="6" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="Z36" s="6"/>
       <c r="AA36" s="6"/>
@@ -4212,7 +4146,7 @@
       <c r="AD36" s="6"/>
       <c r="AE36" s="6"/>
       <c r="AF36" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG36" s="7"/>
       <c r="AH36" s="6"/>
@@ -4225,33 +4159,33 @@
       <c r="AM36" s="6">
         <v>28</v>
       </c>
-      <c r="AN36" s="9"/>
+      <c r="AN36" s="10"/>
       <c r="AO36" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -4289,36 +4223,36 @@
         <v>312</v>
       </c>
       <c r="AN37" s="8" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="AO37" s="6">
         <v>310</v>
       </c>
     </row>
-    <row r="38" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
@@ -4330,23 +4264,21 @@
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
       <c r="T38" s="6" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
       <c r="X38" s="6"/>
-      <c r="Y38" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="Y38" s="6"/>
       <c r="Z38" s="6" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
@@ -4354,7 +4286,7 @@
       <c r="AD38" s="6"/>
       <c r="AE38" s="6"/>
       <c r="AF38" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG38" s="7">
         <v>0.04</v>
@@ -4362,10 +4294,10 @@
       <c r="AH38" s="6"/>
       <c r="AI38" s="6"/>
       <c r="AJ38" s="6" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="AK38" s="6" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AL38" s="6">
         <v>2</v>
@@ -4373,35 +4305,35 @@
       <c r="AM38" s="6">
         <v>29</v>
       </c>
-      <c r="AN38" s="9"/>
+      <c r="AN38" s="10"/>
       <c r="AO38" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -4412,23 +4344,23 @@
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
       <c r="T39" s="6" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
       <c r="X39" s="6"/>
       <c r="Y39" s="6" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="Z39" s="6"/>
       <c r="AA39" s="6"/>
@@ -4437,7 +4369,7 @@
       <c r="AD39" s="6"/>
       <c r="AE39" s="6"/>
       <c r="AF39" s="6" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="AG39" s="7">
         <v>0.04</v>
@@ -4445,10 +4377,10 @@
       <c r="AH39" s="6"/>
       <c r="AI39" s="6"/>
       <c r="AJ39" s="6" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AK39" s="6" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AL39" s="6">
         <v>2</v>
@@ -4456,35 +4388,35 @@
       <c r="AM39" s="6">
         <v>30</v>
       </c>
-      <c r="AN39" s="9"/>
+      <c r="AN39" s="10"/>
       <c r="AO39" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="40" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
@@ -4497,23 +4429,23 @@
         <v>15</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
       <c r="T40" s="6" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
       <c r="Y40" s="6" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="Z40" s="6"/>
       <c r="AA40" s="6"/>
@@ -4522,7 +4454,7 @@
       <c r="AD40" s="6"/>
       <c r="AE40" s="6"/>
       <c r="AF40" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG40" s="7">
         <v>0.04</v>
@@ -4530,10 +4462,10 @@
       <c r="AH40" s="6"/>
       <c r="AI40" s="6"/>
       <c r="AJ40" s="6" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AK40" s="6" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AL40" s="6">
         <v>2</v>
@@ -4541,33 +4473,33 @@
       <c r="AM40" s="6">
         <v>31</v>
       </c>
-      <c r="AN40" s="9"/>
+      <c r="AN40" s="10"/>
       <c r="AO40" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="41" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
@@ -4605,34 +4537,34 @@
         <v>400</v>
       </c>
       <c r="AN41" s="8" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AO41" s="6"/>
     </row>
-    <row r="42" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
@@ -4643,32 +4575,30 @@
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="P42" s="6" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="Q42" s="6" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="R42" s="6" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="S42" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T42" s="6" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
       <c r="X42" s="6"/>
-      <c r="Y42" s="6" t="s">
-        <v>180</v>
-      </c>
+      <c r="Y42" s="6"/>
       <c r="Z42" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="AA42" s="6"/>
       <c r="AB42" s="6"/>
@@ -4676,7 +4606,7 @@
       <c r="AD42" s="6"/>
       <c r="AE42" s="6"/>
       <c r="AF42" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG42" s="7">
         <v>0.12</v>
@@ -4691,35 +4621,35 @@
       <c r="AM42" s="6">
         <v>32</v>
       </c>
-      <c r="AN42" s="9"/>
+      <c r="AN42" s="10"/>
       <c r="AO42" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -4734,18 +4664,16 @@
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
-      <c r="Y43" s="6" t="s">
-        <v>180</v>
-      </c>
+      <c r="Y43" s="6"/>
       <c r="Z43" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="AA43" s="6"/>
       <c r="AB43" s="6"/>
@@ -4753,7 +4681,7 @@
       <c r="AD43" s="6"/>
       <c r="AE43" s="6"/>
       <c r="AF43" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG43" s="7">
         <v>0.28000000000000003</v>
@@ -4769,36 +4697,36 @@
         <v>34</v>
       </c>
       <c r="AN43" s="8" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="AO43" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
@@ -4809,30 +4737,28 @@
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
       <c r="O44" s="6" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="P44" s="6" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q44" s="6" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="R44" s="6"/>
       <c r="S44" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T44" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
       <c r="X44" s="6"/>
-      <c r="Y44" s="6" t="s">
-        <v>180</v>
-      </c>
+      <c r="Y44" s="6"/>
       <c r="Z44" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="AA44" s="6"/>
       <c r="AB44" s="6"/>
@@ -4840,7 +4766,7 @@
       <c r="AD44" s="6"/>
       <c r="AE44" s="6"/>
       <c r="AF44" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG44" s="7"/>
       <c r="AH44" s="6"/>
@@ -4853,35 +4779,35 @@
       <c r="AM44" s="6">
         <v>35</v>
       </c>
-      <c r="AN44" s="9"/>
+      <c r="AN44" s="10"/>
       <c r="AO44" s="6">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -4892,28 +4818,26 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T45" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
-      <c r="Y45" s="6" t="s">
-        <v>180</v>
-      </c>
+      <c r="Y45" s="6"/>
       <c r="Z45" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="AA45" s="6"/>
       <c r="AB45" s="6"/>
@@ -4921,13 +4845,13 @@
       <c r="AD45" s="6"/>
       <c r="AE45" s="6"/>
       <c r="AF45" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG45" s="7"/>
       <c r="AH45" s="6"/>
       <c r="AI45" s="6"/>
       <c r="AJ45" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AK45" s="6"/>
       <c r="AL45" s="6">
@@ -4936,40 +4860,40 @@
       <c r="AM45" s="6">
         <v>36</v>
       </c>
-      <c r="AN45" s="9"/>
+      <c r="AN45" s="10"/>
       <c r="AO45" s="6">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
@@ -4980,7 +4904,7 @@
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
       <c r="T46" s="6" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
@@ -5004,52 +4928,52 @@
         <v>37</v>
       </c>
       <c r="AN46" s="8" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="AO46" s="6"/>
     </row>
-    <row r="47" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
-      <c r="P47" s="10" t="s">
-        <v>208</v>
+      <c r="P47" s="11" t="s">
+        <v>214</v>
       </c>
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
       <c r="T47" s="6" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
@@ -5072,53 +4996,53 @@
       <c r="AM47" s="6">
         <v>38</v>
       </c>
-      <c r="AN47" s="9">
+      <c r="AN47" s="10">
         <v>32</v>
       </c>
       <c r="AO47" s="6"/>
     </row>
-    <row r="48" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
-      <c r="P48" s="10" t="s">
-        <v>212</v>
+      <c r="P48" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
@@ -5141,55 +5065,55 @@
       <c r="AM48" s="6">
         <v>39</v>
       </c>
-      <c r="AN48" s="9">
+      <c r="AN48" s="10">
         <v>33</v>
       </c>
       <c r="AO48" s="6"/>
     </row>
-    <row r="49" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
       <c r="O49" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="P49" s="10" t="s">
-        <v>216</v>
+        <v>221</v>
+      </c>
+      <c r="P49" s="11" t="s">
+        <v>222</v>
       </c>
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
       <c r="T49" s="6" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
@@ -5212,55 +5136,55 @@
       <c r="AM49" s="6">
         <v>40</v>
       </c>
-      <c r="AN49" s="9">
+      <c r="AN49" s="10">
         <v>34</v>
       </c>
       <c r="AO49" s="6"/>
     </row>
-    <row r="50" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
       <c r="O50" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="P50" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
+      </c>
+      <c r="P50" s="11" t="s">
+        <v>225</v>
       </c>
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
       <c r="T50" s="6" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
@@ -5284,59 +5208,59 @@
         <v>42</v>
       </c>
       <c r="AN50" s="8" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="AO50" s="6"/>
     </row>
-    <row r="51" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
       <c r="P51" s="6" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
       <c r="T51" s="6" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
       <c r="W51" s="6"/>
       <c r="X51" s="6"/>
       <c r="Y51" s="6" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="Z51" s="6"/>
       <c r="AA51" s="6"/>
@@ -5354,36 +5278,36 @@
       <c r="AM51" s="6">
         <v>43</v>
       </c>
-      <c r="AN51" s="9"/>
+      <c r="AN51" s="10"/>
       <c r="AO51" s="6"/>
     </row>
-    <row r="52" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
@@ -5394,7 +5318,7 @@
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
       <c r="T52" s="6" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
@@ -5417,7 +5341,7 @@
       <c r="AM52" s="6">
         <v>401</v>
       </c>
-      <c r="AN52" s="9"/>
+      <c r="AN52" s="10"/>
       <c r="AO52" s="6"/>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC FastFood.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC FastFood.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2019\POS_2019-12-16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2019\POS_2019-12-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF196EE0-F59F-4BCC-8CEE-30C7C015C823}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F726A5FD-C046-4736-B4FC-5521506ADEE2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1200" windowWidth="21840" windowHeight="13140" tabRatio="620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FF" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">FF!$A$1:$AO$52</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -798,7 +798,7 @@
     <t>Panoramic photo of Cooler; SS_Panoramic photo of Cooler</t>
   </si>
   <si>
-    <t>Menu Board; Cash Zone; SS_Cash Zone - Canteen, QSR; SS_Menu Board - Canteen, QSR</t>
+    <t>Combo1; Combo2; Combo3; Menu Board; Cash Zone; SS_Cash Zone - Canteen, QSR; SS_Menu Board - Canteen, QSR</t>
   </si>
 </sst>
 </file>
@@ -1250,9 +1250,9 @@
   <dimension ref="A1:AMK52"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" topLeftCell="X1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="Z40" sqref="Z39:Z40"/>
+      <selection pane="bottomLeft" activeCell="Z47" sqref="Z47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
